--- a/Accuracy rMAE and rRMSE (Cross-Temporal).xlsx
+++ b/Accuracy rMAE and rRMSE (Cross-Temporal).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e00c848d2da39f20/Documents/3. Masters/Research/WindPowerForecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="8_{7CAE70F8-1326-4B7D-8A8A-809CD0BBBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53BD83A5-95DE-4191-9E10-1893C0F60EBC}"/>
+  <xr:revisionPtr revIDLastSave="566" documentId="8_{7CAE70F8-1326-4B7D-8A8A-809CD0BBBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DBCF26-7BD2-4BA9-A05F-90D241A147B4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4F6B620E-8A72-45CF-9D17-FD2A4C076D11}"/>
+    <workbookView xWindow="15900" yWindow="0" windowWidth="22610" windowHeight="15370" xr2:uid="{4F6B620E-8A72-45CF-9D17-FD2A4C076D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,22 +169,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,6 +195,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C5127F-CD46-4E4E-96B7-010FB4E47685}">
-  <dimension ref="A1:AI112"/>
+  <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,7 +521,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -541,7 +540,7 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
+      <c r="A2" s="5"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -554,7 +553,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>2</v>
@@ -582,7 +581,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -623,7 +622,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -660,7 +659,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -697,7 +696,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -774,7 +773,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -793,7 +792,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,7 +805,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>2</v>
@@ -834,7 +833,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,7 +874,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>1</v>
@@ -912,7 +911,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
@@ -949,7 +948,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -1025,8 +1024,8 @@
         <v>0.57856822969324828</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1044,8 +1043,8 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1057,8 +1056,8 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
       <c r="D19" s="2">
         <v>2</v>
       </c>
@@ -1084,8 +1083,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1125,8 +1124,8 @@
         <v>1.0941536533282454</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>1</v>
@@ -1162,8 +1161,8 @@
         <v>0.69377176654106154</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -1199,8 +1198,8 @@
         <v>0.53584339752284194</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -1236,7 +1235,7 @@
         <v>0.30534989621986136</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -1275,27 +1274,9 @@
         <f>GEOMEAN(M20:M23)</f>
         <v>0.59365297608650891</v>
       </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1312,27 +1293,9 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1343,27 +1306,9 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
       <c r="D27" s="2">
         <v>2</v>
       </c>
@@ -1388,27 +1333,9 @@
       <c r="M27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1447,27 +1374,9 @@
         <f>GEOMEAN(J28:L28)</f>
         <v>1.0888325421285385</v>
       </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>1</v>
@@ -1502,27 +1411,9 @@
         <f>GEOMEAN(J29:L29)</f>
         <v>0.68771564685504094</v>
       </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>2</v>
@@ -1557,27 +1448,19 @@
         <f>GEOMEAN(J30:L30)</f>
         <v>0.53029052178649372</v>
       </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>3</v>
@@ -1612,26 +1495,14 @@
         <f>GEOMEAN(J31:L31)</f>
         <v>0.29643269094669394</v>
       </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
@@ -1670,27 +1541,18 @@
         <f>GEOMEAN(M28:M31)</f>
         <v>0.58573677234427501</v>
       </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1707,27 +1569,21 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
       <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1738,27 +1594,21 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
       <c r="D35" s="2">
         <v>2</v>
       </c>
@@ -1783,27 +1633,21 @@
       <c r="M35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1842,27 +1686,21 @@
         <f>GEOMEAN(J36:L36)</f>
         <v>1.1001948253851705</v>
       </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="8"/>
-      <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>1</v>
@@ -1897,27 +1735,19 @@
         <f>GEOMEAN(J37:L37)</f>
         <v>0.69611358888790298</v>
       </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>2</v>
@@ -1952,27 +1782,9 @@
         <f>GEOMEAN(J38:L38)</f>
         <v>0.53765982147751423</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>3</v>
@@ -2007,26 +1819,8 @@
         <f>GEOMEAN(J39:L39)</f>
         <v>0.30412609066719809</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
@@ -2065,27 +1859,9 @@
         <f>GEOMEAN(M36:M39)</f>
         <v>0.59487777423582822</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2102,27 +1878,9 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2133,27 +1891,9 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
         <v>2</v>
@@ -2180,8 +1920,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2221,8 +1961,8 @@
         <v>1.0806715630344856</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>1</v>
@@ -2258,8 +1998,8 @@
         <v>0.67694612307450464</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>2</v>
@@ -2295,8 +2035,8 @@
         <v>0.52080950490338696</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>3</v>
@@ -2332,7 +2072,7 @@
         <v>0.29039297925087221</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
@@ -2373,7 +2113,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2392,7 +2132,7 @@
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2145,7 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
+      <c r="A51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
         <v>2</v>
@@ -2433,7 +2173,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2214,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
         <v>1</v>
@@ -2511,7 +2251,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>2</v>
@@ -2548,7 +2288,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>3</v>
@@ -2625,7 +2365,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2644,7 +2384,7 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5"/>
       <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2657,7 +2397,7 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5"/>
       <c r="D59">
         <v>2</v>
       </c>
@@ -2684,7 +2424,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
@@ -2725,7 +2465,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
         <v>1</v>
@@ -2762,7 +2502,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="1"/>
       <c r="C62" t="s">
         <v>2</v>
@@ -2799,7 +2539,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="1"/>
       <c r="C63" t="s">
         <v>3</v>
@@ -2876,7 +2616,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2895,7 +2635,7 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="4"/>
+      <c r="A66" s="5"/>
       <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2648,7 @@
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="4"/>
+      <c r="A67" s="5"/>
       <c r="D67">
         <v>2</v>
       </c>
@@ -2929,7 +2669,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2970,7 +2710,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="1"/>
       <c r="C69" t="s">
         <v>1</v>
@@ -3007,7 +2747,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="1"/>
       <c r="C70" t="s">
         <v>2</v>
@@ -3044,7 +2784,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="1"/>
       <c r="C71" t="s">
         <v>3</v>
@@ -3121,7 +2861,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3140,7 +2880,7 @@
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" s="4"/>
+      <c r="A74" s="5"/>
       <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
@@ -3153,7 +2893,7 @@
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="4"/>
+      <c r="A75" s="5"/>
       <c r="D75">
         <v>2</v>
       </c>
@@ -3174,7 +2914,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A76" s="4"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="1" t="s">
         <v>5</v>
       </c>
@@ -3215,7 +2955,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A77" s="4"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="1"/>
       <c r="C77" t="s">
         <v>1</v>
@@ -3252,7 +2992,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A78" s="4"/>
+      <c r="A78" s="5"/>
       <c r="B78" s="1"/>
       <c r="C78" t="s">
         <v>2</v>
@@ -3289,7 +3029,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A79" s="4"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
         <v>3</v>
@@ -3366,7 +3106,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3385,7 +3125,7 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A82" s="4"/>
+      <c r="A82" s="5"/>
       <c r="D82" s="1" t="s">
         <v>4</v>
       </c>
@@ -3398,7 +3138,7 @@
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A83" s="4"/>
+      <c r="A83" s="5"/>
       <c r="D83">
         <v>2</v>
       </c>
@@ -3419,7 +3159,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A84" s="4"/>
+      <c r="A84" s="5"/>
       <c r="B84" s="1" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3200,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" s="4"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
         <v>1</v>
@@ -3497,7 +3237,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A86" s="4"/>
+      <c r="A86" s="5"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
         <v>2</v>
@@ -3534,7 +3274,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
         <v>3</v>
@@ -3611,7 +3351,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3630,7 +3370,7 @@
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="4"/>
+      <c r="A90" s="5"/>
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
@@ -3643,7 +3383,7 @@
       <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A91" s="4"/>
+      <c r="A91" s="5"/>
       <c r="D91">
         <v>2</v>
       </c>
@@ -3664,7 +3404,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92" s="4"/>
+      <c r="A92" s="5"/>
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
@@ -3705,7 +3445,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93" s="4"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
         <v>1</v>
@@ -3742,7 +3482,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" s="4"/>
+      <c r="A94" s="5"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
         <v>2</v>
@@ -3779,7 +3519,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A95" s="4"/>
+      <c r="A95" s="5"/>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
         <v>3</v>
@@ -3856,7 +3596,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3875,7 +3615,7 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A98" s="4"/>
+      <c r="A98" s="5"/>
       <c r="D98" s="1" t="s">
         <v>4</v>
       </c>
@@ -3888,7 +3628,7 @@
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A99" s="4"/>
+      <c r="A99" s="5"/>
       <c r="D99">
         <v>2</v>
       </c>
@@ -3909,7 +3649,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A100" s="4"/>
+      <c r="A100" s="5"/>
       <c r="B100" s="1" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +3690,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A101" s="4"/>
+      <c r="A101" s="5"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
         <v>1</v>
@@ -3987,7 +3727,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A102" s="4"/>
+      <c r="A102" s="5"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
         <v>2</v>
@@ -4024,7 +3764,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A103" s="4"/>
+      <c r="A103" s="5"/>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
         <v>3</v>
@@ -4101,7 +3841,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -4120,7 +3860,7 @@
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106" s="4"/>
+      <c r="A106" s="5"/>
       <c r="D106" s="1" t="s">
         <v>4</v>
       </c>
@@ -4133,7 +3873,7 @@
       <c r="L106" s="1"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A107" s="4"/>
+      <c r="A107" s="5"/>
       <c r="D107">
         <v>2</v>
       </c>
@@ -4154,7 +3894,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A108" s="4"/>
+      <c r="A108" s="5"/>
       <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
@@ -4195,7 +3935,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A109" s="4"/>
+      <c r="A109" s="5"/>
       <c r="B109" s="1"/>
       <c r="C109" t="s">
         <v>1</v>
@@ -4232,7 +3972,7 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A110" s="4"/>
+      <c r="A110" s="5"/>
       <c r="B110" s="1"/>
       <c r="C110" t="s">
         <v>2</v>
@@ -4269,7 +4009,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A111" s="4"/>
+      <c r="A111" s="5"/>
       <c r="B111" s="1"/>
       <c r="C111" t="s">
         <v>3</v>
@@ -4347,6 +4087,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A7"/>
     <mergeCell ref="A105:A111"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="A17:A23"/>
@@ -4360,7 +4101,6 @@
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A1:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Accuracy rMAE and rRMSE (Cross-Temporal).xlsx
+++ b/Accuracy rMAE and rRMSE (Cross-Temporal).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e00c848d2da39f20/Documents/3. Masters/Research/WindPowerForecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="566" documentId="8_{7CAE70F8-1326-4B7D-8A8A-809CD0BBBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DBCF26-7BD2-4BA9-A05F-90D241A147B4}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="8_{7CAE70F8-1326-4B7D-8A8A-809CD0BBBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95A500C-7406-4DBB-8873-9735139462CF}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="0" windowWidth="22610" windowHeight="15370" xr2:uid="{4F6B620E-8A72-45CF-9D17-FD2A4C076D11}"/>
+    <workbookView xWindow="2420" yWindow="-110" windowWidth="22610" windowHeight="15370" xr2:uid="{4F6B620E-8A72-45CF-9D17-FD2A4C076D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,8 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C5127F-CD46-4E4E-96B7-010FB4E47685}">
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:G110"/>
+    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68:L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +512,7 @@
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
@@ -840,18 +842,18 @@
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
-        <v>1.1792467493719501</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.1650582125773401</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.1677617725774201</v>
+      <c r="D12" s="6">
+        <v>1.05154974370181</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.0530191285572701</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.0784709007279301</v>
       </c>
       <c r="G12" s="3">
         <f>GEOMEAN(D12:F12)</f>
-        <v>1.1706727856629069</v>
+        <v>1.0609416634083453</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
@@ -859,18 +861,18 @@
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="3">
-        <v>1.0884532706905601</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1.0851884745679199</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1.07671719933475</v>
+      <c r="J12" s="4">
+        <v>0.98040096964708001</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.98281221042435796</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.98724496030962905</v>
       </c>
       <c r="M12" s="3">
         <f>GEOMEAN(J12:L12)</f>
-        <v>1.0834416759708567</v>
+        <v>0.98348196515698583</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -879,35 +881,35 @@
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.75225956939253602</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.71375492278405905</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.67762581762860896</v>
+      <c r="D13" s="6">
+        <v>0.63660344518442602</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.62624605730274496</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.63056747651661305</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ref="G13:G15" si="5">GEOMEAN(D13:F13)</f>
-        <v>0.71389706091233585</v>
+        <v>0.63112471181280405</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="3">
-        <v>0.70804487960087303</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.68028154769453597</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.64827104020177695</v>
+      <c r="J13" s="4">
+        <v>0.59892104487281095</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.59646748093605895</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.59861350929355694</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ref="M13:M15" si="6">GEOMEAN(J13:L13)</f>
-        <v>0.6784252960949444</v>
+        <v>0.59799968164932826</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -916,35 +918,35 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.58195893776104901</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.53988256317817696</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.50023859681188099</v>
+      <c r="D14" s="6">
+        <v>0.48339565806056001</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.465037052644038</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.468205291061145</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="5"/>
-        <v>0.53966337742185788</v>
+        <v>0.47214515771514309</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="3">
-        <v>0.55352769567523397</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.52359674309087201</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.490467439404769</v>
+      <c r="J14" s="4">
+        <v>0.45260484245785298</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.447338808333275</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.45314904710428899</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="6"/>
-        <v>0.52189382429640929</v>
+        <v>0.45102326851556901</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -953,35 +955,35 @@
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.33059568762826902</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.30994681960543302</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.27521963365135299</v>
+      <c r="D15" s="6">
+        <v>0.27558544291534498</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.27112084227368399</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.262917811356076</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="5"/>
-        <v>0.30438360780023282</v>
+        <v>0.26982347359778575</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
-        <v>0.312008959866238</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.29909156940083997</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.26706351648447901</v>
+      <c r="J15" s="4">
+        <v>0.25095932541739902</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.25549975442822498</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.25137588334024102</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="6"/>
-        <v>0.29209801129083612</v>
+        <v>0.25260337280027167</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -990,38 +992,38 @@
       </c>
       <c r="D16" s="3">
         <f>GEOMEAN(D12:D15)</f>
-        <v>0.64274762991254408</v>
+        <v>0.54646764841624085</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ref="E16:F16" si="7">GEOMEAN(E12:E15)</f>
-        <v>0.61076031008273957</v>
+        <v>0.53697977908423467</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="7"/>
-        <v>0.57451345218042138</v>
+        <v>0.53789694907561436</v>
       </c>
       <c r="G16" s="3">
         <f>GEOMEAN(G12:G15)</f>
-        <v>0.60870074174393152</v>
+        <v>0.54043129468484352</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="3">
         <f>GEOMEAN(J12:J15)</f>
-        <v>0.60401016723702872</v>
+        <v>0.50818747851494039</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ref="K16:L16" si="8">GEOMEAN(K12:K15)</f>
-        <v>0.5831076551235358</v>
+        <v>0.50876953100073807</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="8"/>
-        <v>0.54988358318470132</v>
+        <v>0.5093707822016923</v>
       </c>
       <c r="M16" s="3">
         <f>GEOMEAN(M12:M15)</f>
-        <v>0.57856822969324828</v>
+        <v>0.50877570121256688</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
@@ -2676,18 +2678,18 @@
       <c r="C68" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="3">
-        <v>1.1658707796035801</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1.1526833414639199</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1.1458018418207201</v>
+      <c r="D68" s="4">
+        <v>1.0560028666811001</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1.04514005041323</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1.0614353954587701</v>
       </c>
       <c r="G68" s="3">
         <f>GEOMEAN(D68:F68)</f>
-        <v>1.1547553512569322</v>
+        <v>1.0541709671513604</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>5</v>
@@ -2695,18 +2697,18 @@
       <c r="I68" t="s">
         <v>0</v>
       </c>
-      <c r="J68" s="3">
-        <v>1.07789251322462</v>
-      </c>
-      <c r="K68" s="3">
-        <v>1.0688210207511299</v>
-      </c>
-      <c r="L68" s="3">
-        <v>1.0537976076459901</v>
+      <c r="J68" s="4">
+        <v>0.98476580582929796</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0.96975921926139896</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0.96692278063616599</v>
       </c>
       <c r="M68" s="3">
         <f>GEOMEAN(J68:L68)</f>
-        <v>1.0667906896855408</v>
+        <v>0.97378457249963346</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -2715,35 +2717,35 @@
       <c r="C69" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="3">
-        <v>0.73335454369460795</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0.69978771838482701</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.66280330099245799</v>
+      <c r="D69" s="4">
+        <v>0.63870584200882796</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.618422356942533</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.61612237371784795</v>
       </c>
       <c r="G69" s="3">
         <f>GEOMEAN(D69:F69)</f>
-        <v>0.69805287799431337</v>
+        <v>0.62433500194015557</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" t="s">
         <v>1</v>
       </c>
-      <c r="J69" s="3">
-        <v>0.69834977126363895</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0.67219954501888002</v>
-      </c>
-      <c r="L69" s="3">
-        <v>0.64447297005455995</v>
+      <c r="J69" s="4">
+        <v>0.60745250060737899</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.59081198832616</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0.58904039794798502</v>
       </c>
       <c r="M69" s="3">
         <f t="shared" ref="M69:M71" si="12">GEOMEAN(J69:L69)</f>
-        <v>0.67131338359822068</v>
+        <v>0.59571092935553827</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -2752,35 +2754,35 @@
       <c r="C70" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="3">
-        <v>0.56433872730627299</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0.523126041102842</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0.48163882668570601</v>
+      <c r="D70" s="4">
+        <v>0.48166940913591</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.45424899595852902</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.45240110906330999</v>
       </c>
       <c r="G70" s="3">
         <f>GEOMEAN(D70:F70)</f>
-        <v>0.52194237964326495</v>
+        <v>0.46258218235939552</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" t="s">
         <v>2</v>
       </c>
-      <c r="J70" s="3">
-        <v>0.54046193959107702</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0.50752021377729395</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0.47520281612621501</v>
+      <c r="J70" s="4">
+        <v>0.45690836232572701</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0.43725551951922398</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.43664271417968997</v>
       </c>
       <c r="M70" s="3">
         <f t="shared" si="12"/>
-        <v>0.50702863637769602</v>
+        <v>0.4435033196895668</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -2789,35 +2791,35 @@
       <c r="C71" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="3">
-        <v>0.317247642064163</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0.29628267610439502</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0.26370256265518</v>
+      <c r="D71" s="4">
+        <v>0.27298049892859899</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.26369531544805103</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.25299769118118598</v>
       </c>
       <c r="G71" s="3">
         <f>GEOMEAN(D71:F71)</f>
-        <v>0.29156787430990244</v>
+        <v>0.26309758715761955</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="3">
-        <v>0.30239113716727301</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0.28895882421262098</v>
-      </c>
-      <c r="L71" s="3">
-        <v>0.25969438468103301</v>
+      <c r="J71" s="4">
+        <v>0.25388893422245601</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.25098164077922902</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0.24314021007922501</v>
       </c>
       <c r="M71" s="3">
         <f t="shared" si="12"/>
-        <v>0.28311042360428784</v>
+        <v>0.24929534629917796</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -2826,38 +2828,38 @@
       </c>
       <c r="D72" s="3">
         <f>GEOMEAN(D68:D71)</f>
-        <v>0.62549762570825618</v>
+        <v>0.5457096937788305</v>
       </c>
       <c r="E72" s="3">
         <f>GEOMEAN(E68:E71)</f>
-        <v>0.59463057035357758</v>
+        <v>0.52748973870822002</v>
       </c>
       <c r="F72" s="3">
         <f>GEOMEAN(F68:F71)</f>
-        <v>0.55729160982277637</v>
+        <v>0.52305841223922633</v>
       </c>
       <c r="G72" s="3">
         <f>GEOMEAN(G68:G71)</f>
-        <v>0.59181386330201702</v>
+        <v>0.53199631629030186</v>
       </c>
       <c r="I72" t="s">
         <v>10</v>
       </c>
       <c r="J72" s="3">
         <f>GEOMEAN(J68:J71)</f>
-        <v>0.59223716315665076</v>
+        <v>0.5132506887621231</v>
       </c>
       <c r="K72" s="3">
         <f t="shared" ref="K72" si="13">GEOMEAN(K68:K71)</f>
-        <v>0.56973529744287099</v>
+        <v>0.50075191365679861</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" ref="L72" si="14">GEOMEAN(L68:L71)</f>
-        <v>0.53805400706090678</v>
+        <v>0.49588385605475183</v>
       </c>
       <c r="M72" s="3">
         <f>GEOMEAN(M68:M71)</f>
-        <v>0.56623696511625643</v>
+        <v>0.50324257519578308</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">

--- a/Accuracy rMAE and rRMSE (Cross-Temporal).xlsx
+++ b/Accuracy rMAE and rRMSE (Cross-Temporal).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e00c848d2da39f20/Documents/3. Masters/Research/WindPowerForecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="642" documentId="8_{7CAE70F8-1326-4B7D-8A8A-809CD0BBBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95A500C-7406-4DBB-8873-9735139462CF}"/>
+  <xr:revisionPtr revIDLastSave="821" documentId="8_{7CAE70F8-1326-4B7D-8A8A-809CD0BBBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D50A00-EE70-47F9-A1D9-A631AADDDC34}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="-110" windowWidth="22610" windowHeight="15370" xr2:uid="{4F6B620E-8A72-45CF-9D17-FD2A4C076D11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4F6B620E-8A72-45CF-9D17-FD2A4C076D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +116,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,10 +178,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,6 +198,1157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Cross-temporally Reconciled Forecast</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LR AvRelMAE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Unreconciled</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> BU-CT</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> THF</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> TCS</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> CST</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v> ITE</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v> OCT</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$8,Sheet1!$G$16,Sheet1!$G$24,Sheet1!$G$32,Sheet1!$G$40,Sheet1!$G$48,Sheet1!$G$56)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0309700880227557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9743731209181723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0046752131152323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.970028891481169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98558975267380722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98517606387003587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96877109281924612</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5CCC-4DEA-BB8B-F53DB71AF3C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LR AvRelRMSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="7"/>
+              <c:pt idx="0">
+                <c:v>Unreconciled</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> BU-CT</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> THF</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v> TCS</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v> CST</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v> ITE</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v> OCT</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$M$8,Sheet1!$M$16,Sheet1!$M$24,Sheet1!$M$32,Sheet1!$M$40,Sheet1!$M$48,Sheet1!$M$56)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.96447067964771771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90938250910621565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93124925535593683</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>0.90961130592173989</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>0.91987002912892779</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>0.91967259489685571</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>0.90904599454383073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5CCC-4DEA-BB8B-F53DB71AF3C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GB AvRelMAE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$64,Sheet1!$G$72,Sheet1!$G$80,Sheet1!$G$88,Sheet1!$G$96,Sheet1!$G$104,Sheet1!$G$112)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0364136160503963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96832426474118916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0002257610831904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96963456495005651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98597424572440262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98489317519025743</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96750678921380706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C170-4FA2-A66A-65E8A06063C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>GB AvRelRMSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$M$64,Sheet1!$M$72,Sheet1!$M$80,Sheet1!$M$88,Sheet1!$M$96,Sheet1!$M$104,Sheet1!$M$112)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.97202028869485435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90429191714903989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93236675719584372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91177647088444003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92393976996938454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9229628464177404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90988184006259465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C170-4FA2-A66A-65E8A06063C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="45209344"/>
+        <c:axId val="45209760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45209344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45209760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45209760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45209344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2E06D2-D280-9C32-F3A9-BB852434BBE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,28 +1654,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C5127F-CD46-4E4E-96B7-010FB4E47685}">
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68:L71"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.26953125" customWidth="1"/>
     <col min="11" max="11" width="11.7265625" customWidth="1"/>
     <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -542,7 +1694,7 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,7 +1707,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>2</v>
@@ -583,25 +1735,25 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
-        <v>1.05154974370181</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.0203650443894501</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.98747753130219995</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="D4" s="5">
+        <v>1.0592846977557699</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.02963208908215</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.01954223361298</v>
+      </c>
+      <c r="G4" s="6">
         <f>GEOMEAN(D4:F4)</f>
-        <v>1.0194616008021999</v>
+        <v>1.0360164776196741</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>
@@ -609,110 +1761,110 @@
       <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="3">
-        <v>0.98040096964708001</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.97347207255197099</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.95365096153906503</v>
+      <c r="J4" s="4">
+        <v>0.95786849255492901</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.96231137817143597</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.963744194627697</v>
       </c>
       <c r="M4" s="3">
         <f>GEOMEAN(J4:L4)</f>
-        <v>0.96910810697145133</v>
+        <v>0.96130476414365063</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
-        <v>1.0474372715960401</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.0194938432284799</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.98773467220877198</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="D5" s="5">
+        <v>1.0624669731016201</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.0345983790967499</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.02254900769569</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G7" si="0">GEOMEAN(D5:F5)</f>
-        <v>1.0179293658144672</v>
+        <v>1.0397376919401935</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="3">
-        <v>0.97963888230496099</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.97869614093086599</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.97910453574234202</v>
+      <c r="J5" s="4">
+        <v>0.97142227333357301</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.97546497471058602</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.97708035678514105</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ref="M5:M7" si="1">GEOMEAN(J5:L5)</f>
-        <v>0.97914644357175751</v>
+        <v>0.97465296092529352</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
-        <v>1.0475607497802999</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.01840071383195</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.98215180869375496</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D6" s="5">
+        <v>1.0586499521530099</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.03327618887192</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.0095656598473799</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>1.0156845459770616</v>
+        <v>1.0336363912819944</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <v>0.97684245801630398</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.97585017100094495</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.95532206729795099</v>
+      <c r="J6" s="4">
+        <v>0.96913220142851997</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.973162609996154</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.961803590485517</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="1"/>
-        <v>0.96928723504110392</v>
+        <v>0.96802136850832932</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>1.04108496048175</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>1.01789000019496</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>0.98580504083140097</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>1.0146727995991616</v>
       </c>
@@ -720,13 +1872,13 @@
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>0.96101489056904099</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <v>0.96009676922210796</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <v>0.94109852318371801</v>
       </c>
       <c r="M7" s="3">
@@ -738,44 +1890,44 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <f>GEOMEAN(D4:D7)</f>
-        <v>1.046901468511737</v>
-      </c>
-      <c r="E8" s="3">
+        <v>1.0553382353283558</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" ref="E8:F8" si="2">GEOMEAN(E4:E7)</f>
-        <v>1.0190369474787218</v>
-      </c>
-      <c r="F8" s="3">
+        <v>1.0288280184444196</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
-        <v>0.98578974109159434</v>
-      </c>
-      <c r="G8" s="3">
+        <v>1.0092615755018655</v>
+      </c>
+      <c r="G8" s="6">
         <f>GEOMEAN(G4:G7)</f>
-        <v>1.0169353508793983</v>
+        <v>1.0309700880227557</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="3">
         <f>GEOMEAN(J4:J7)</f>
-        <v>0.97444223169964594</v>
+        <v>0.96484326925716257</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ref="K8" si="3">GEOMEAN(K4:K7)</f>
-        <v>0.97200249761073332</v>
+        <v>0.96773607515230597</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" ref="L8" si="4">GEOMEAN(L4:L7)</f>
-        <v>0.95719595305295924</v>
+        <v>0.96084511344619006</v>
       </c>
       <c r="M8" s="3">
         <f>GEOMEAN(M4:M7)</f>
-        <v>0.96785012569681894</v>
+        <v>0.96447067964771771</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -794,7 +1946,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,7 +1959,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>2</v>
@@ -835,25 +1987,25 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="6">
-        <v>1.05154974370181</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1.0530191285572701</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1.0784709007279301</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="D12" s="5">
+        <v>1.0592846977557699</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1.04685597001332</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1.08688523187883</v>
+      </c>
+      <c r="G12" s="6">
         <f>GEOMEAN(D12:F12)</f>
-        <v>1.0609416634083453</v>
+        <v>1.0642110732152528</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
@@ -862,172 +2014,172 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>0.98040096964708001</v>
+        <v>0.95786849255492901</v>
       </c>
       <c r="K12" s="4">
-        <v>0.98281221042435796</v>
+        <v>0.96598968370306104</v>
       </c>
       <c r="L12" s="4">
-        <v>0.98724496030962905</v>
+        <v>0.98561052417299899</v>
       </c>
       <c r="M12" s="3">
         <f>GEOMEAN(J12:L12)</f>
-        <v>0.98348196515698583</v>
+        <v>0.96975323318332907</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.63660344518442602</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.62624605730274496</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.63056747651661305</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="D13" s="5">
+        <v>1.0329272025022</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1.0069266751192301</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1.0255605653878199</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" ref="G13:G15" si="5">GEOMEAN(D13:F13)</f>
-        <v>0.63112471181280405</v>
+        <v>1.0217460279253281</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>0.59892104487281095</v>
+        <v>0.95048473868088401</v>
       </c>
       <c r="K13" s="4">
-        <v>0.59646748093605895</v>
+        <v>0.95259060599539502</v>
       </c>
       <c r="L13" s="4">
-        <v>0.59861350929355694</v>
+        <v>0.97106739196801395</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ref="M13:M15" si="6">GEOMEAN(J13:L13)</f>
-        <v>0.59799968164932826</v>
+        <v>0.95800315158885951</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.48339565806056001</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.465037052644038</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.468205291061145</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="5">
+        <v>0.99130551577070503</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.96253558735011302</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.96866325080044402</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="5"/>
-        <v>0.47214515771514309</v>
+        <v>0.97408991562268454</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>0.45260484245785298</v>
+        <v>0.91801836968001305</v>
       </c>
       <c r="K14" s="4">
-        <v>0.447338808333275</v>
+        <v>0.91543535078233396</v>
       </c>
       <c r="L14" s="4">
-        <v>0.45314904710428899</v>
+        <v>0.92098300425945701</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="6"/>
-        <v>0.45102326851556901</v>
+        <v>0.91814277752636153</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="6">
-        <v>0.27558544291534498</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.27112084227368399</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.262917811356076</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="D15" s="5">
+        <v>0.87885102312768504</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.851931423161568</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.82314113154588597</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="5"/>
-        <v>0.26982347359778575</v>
+        <v>0.85100360759029603</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="4">
-        <v>0.25095932541739902</v>
+        <v>0.81546878156251801</v>
       </c>
       <c r="K15" s="4">
-        <v>0.25549975442822498</v>
+        <v>0.80665483654151304</v>
       </c>
       <c r="L15" s="4">
-        <v>0.25137588334024102</v>
+        <v>0.78351784316424</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="6"/>
-        <v>0.25260337280027167</v>
+        <v>0.80176665636684896</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <f>GEOMEAN(D12:D15)</f>
-        <v>0.54646764841624085</v>
-      </c>
-      <c r="E16" s="3">
+        <v>0.98810091098282482</v>
+      </c>
+      <c r="E16" s="6">
         <f t="shared" ref="E16:F16" si="7">GEOMEAN(E12:E15)</f>
-        <v>0.53697977908423467</v>
-      </c>
-      <c r="F16" s="3">
+        <v>0.96422092762135969</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="7"/>
-        <v>0.53789694907561436</v>
-      </c>
-      <c r="G16" s="3">
+        <v>0.97095260674570882</v>
+      </c>
+      <c r="G16" s="6">
         <f>GEOMEAN(G12:G15)</f>
-        <v>0.54043129468484352</v>
+        <v>0.9743731209181723</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="3">
         <f>GEOMEAN(J12:J15)</f>
-        <v>0.50818747851494039</v>
+        <v>0.90860984223359198</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ref="K16:L16" si="8">GEOMEAN(K12:K15)</f>
-        <v>0.50876953100073807</v>
+        <v>0.90792202373918718</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="8"/>
-        <v>0.5093707822016923</v>
+        <v>0.9116199117196383</v>
       </c>
       <c r="M16" s="3">
         <f>GEOMEAN(M12:M15)</f>
-        <v>0.50877570121256688</v>
+        <v>0.90938250910621565</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1046,7 +2198,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +2211,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="D19" s="2">
         <v>2</v>
       </c>
@@ -1086,25 +2238,25 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
-        <v>1.2319553298539401</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.2002586253729299</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.1652534768432099</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="D20" s="5">
+        <v>1.10621249981029</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.0895194667492001</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1.0988616194610801</v>
+      </c>
+      <c r="G20" s="6">
         <f>GEOMEAN(D20:F20)</f>
-        <v>1.1988460074681304</v>
+        <v>1.0981766034929987</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
@@ -1112,173 +2264,173 @@
       <c r="I20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="3">
-        <v>1.105122721608</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1.1028740506630099</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1.07472788615028</v>
+      <c r="J20" s="4">
+        <v>0.98294214721228002</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.992348340586231</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.99339560063964005</v>
       </c>
       <c r="M20" s="3">
         <f>GEOMEAN(J20:L20)</f>
-        <v>1.0941536533282454</v>
+        <v>0.98955084165079044</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="3">
-        <v>0.80843788757538104</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.74216755766057996</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.67475214397799199</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="D21" s="5">
+        <v>1.0793478595002901</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.0486283244652299</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1.0381970310289099</v>
+      </c>
+      <c r="G21" s="6">
         <f>GEOMEAN(D21:F21)</f>
-        <v>0.73977156252492726</v>
+        <v>1.0552473425614208</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="3">
-        <v>0.73990355392183105</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0.69804077503242801</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.64653785879223902</v>
+      <c r="J21" s="4">
+        <v>0.97806491788142602</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.98070324059700997</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.979423280267534</v>
       </c>
       <c r="M21" s="3">
         <f>GEOMEAN(J21:L21)</f>
-        <v>0.69377176654106154</v>
+        <v>0.97939655379358781</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
-        <v>0.63582566778701</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.56406144201028297</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.49670107636878502</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="D22" s="5">
+        <v>1.0365871197090599</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.0020896936999499</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.97793102318130998</v>
+      </c>
+      <c r="G22" s="6">
         <f>GEOMEAN(D22:F22)</f>
-        <v>0.56266926122232286</v>
+        <v>1.0052487515612187</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="3">
-        <v>0.58461071174582502</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0.53797322227242494</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0.489199747092809</v>
+      <c r="J22" s="4">
+        <v>0.94708190412459503</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.944716177455037</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.92984387964154602</v>
       </c>
       <c r="M22" s="3">
         <f>GEOMEAN(J22:L22)</f>
-        <v>0.53584339752284194</v>
+        <v>0.94051626231916619</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="3">
-        <v>0.37778091109373302</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.331960509686137</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.27128791326298302</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="D23" s="5">
+        <v>0.91857241905808296</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.88266058360911803</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.82508962960854904</v>
+      </c>
+      <c r="G23" s="6">
         <f>GEOMEAN(D23:F23)</f>
-        <v>0.32403030216984369</v>
+        <v>0.87458646963348186</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="3">
-        <v>0.34345321108856702</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0.31379701835012802</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0.26416600986459898</v>
+      <c r="J23" s="4">
+        <v>0.84664838773838103</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.83713802721803299</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.79250520977473804</v>
       </c>
       <c r="M23" s="3">
         <f>GEOMEAN(J23:L23)</f>
-        <v>0.30534989621986136</v>
+        <v>0.8250889305429836</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <f>GEOMEAN(D20:D23)</f>
-        <v>0.69936665415389021</v>
-      </c>
-      <c r="E24" s="3">
+        <v>1.0325944854292552</v>
+      </c>
+      <c r="E24" s="6">
         <f>GEOMEAN(E20:E23)</f>
-        <v>0.63906849699862955</v>
-      </c>
-      <c r="F24" s="3">
+        <v>1.0026266101014696</v>
+      </c>
+      <c r="F24" s="6">
         <f>GEOMEAN(F20:F23)</f>
-        <v>0.57052221110761459</v>
-      </c>
-      <c r="G24" s="3">
+        <v>0.97950810714084802</v>
+      </c>
+      <c r="G24" s="6">
         <f>GEOMEAN(G20:G23)</f>
-        <v>0.63412512724234493</v>
+        <v>1.0046752131152323</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="3">
         <f>GEOMEAN(J20:J23)</f>
-        <v>0.63654629227227455</v>
+        <v>0.93701504868326979</v>
       </c>
       <c r="K24" s="3">
         <f>GEOMEAN(K20:K23)</f>
-        <v>0.60041847285486327</v>
+        <v>0.93664505627970029</v>
       </c>
       <c r="L24" s="3">
         <f>GEOMEAN(L20:L23)</f>
-        <v>0.54741149095521169</v>
+        <v>0.92018723516222789</v>
       </c>
       <c r="M24" s="3">
         <f>GEOMEAN(M20:M23)</f>
-        <v>0.59365297608650891</v>
+        <v>0.93124925535593683</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1297,7 +2449,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +2462,7 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="D27" s="2">
         <v>2</v>
       </c>
@@ -1337,25 +2489,25 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="3">
-        <v>1.18105864266813</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1.1843416875469901</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1.1760434694444699</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="D28" s="5">
+        <v>1.0568698589366801</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.0495431686560599</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1.0824086120563099</v>
+      </c>
+      <c r="G28" s="6">
         <f>GEOMEAN(D28:F28)</f>
-        <v>1.1804763325258589</v>
+        <v>1.0628476562626996</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>5</v>
@@ -1363,92 +2515,92 @@
       <c r="I28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="3">
-        <v>1.0871622536902901</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1.0981335593838599</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1.0812689888289699</v>
-      </c>
-      <c r="M28" s="3">
+      <c r="J28" s="5">
+        <v>0.958318894459115</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.96848771886949003</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.983961258400054</v>
+      </c>
+      <c r="M28" s="6">
         <f>GEOMEAN(J28:L28)</f>
-        <v>1.0888325421285385</v>
+        <v>0.97019877667425913</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="3">
-        <v>0.75750618194267405</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.73348511670787797</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.68571239791372696</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="D29" s="5">
+        <v>1.0284998051333101</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.00767348102848</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.02146734479165</v>
+      </c>
+      <c r="G29" s="6">
         <f>GEOMEAN(D29:F29)</f>
-        <v>0.72494739956982091</v>
+        <v>1.0191767555829709</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="3">
-        <v>0.71265801399005502</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0.69740207249559405</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0.65442865855896604</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="J29" s="5">
+        <v>0.95089600259731299</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.95516741408404504</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.96929951843381001</v>
+      </c>
+      <c r="M29" s="6">
         <f>GEOMEAN(J29:L29)</f>
-        <v>0.68771564685504094</v>
+        <v>0.95842214285656413</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.58598412066441496</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.55645059192675195</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.50670349157892103</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="D30" s="5">
+        <v>0.98519743178132801</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.96227009682337705</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.96327624693764302</v>
+      </c>
+      <c r="G30" s="6">
         <f>GEOMEAN(D30:F30)</f>
-        <v>0.54872588930576482</v>
+        <v>0.97019054403884242</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="3">
-        <v>0.55688831054142296</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0.53980169149679502</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.49606575958652499</v>
-      </c>
-      <c r="M30" s="3">
+      <c r="J30" s="5">
+        <v>0.91806593926424795</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.91773746062681705</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.91868092487559205</v>
+      </c>
+      <c r="M30" s="6">
         <f>GEOMEAN(J30:L30)</f>
-        <v>0.53029052178649372</v>
+        <v>0.91816135832508672</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -1462,41 +2614,42 @@
       <c r="AF30" s="2"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="3">
-        <v>0.33350859473385203</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.31928839284437599</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.27910046780502701</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="D31" s="5">
+        <v>0.86947959518553597</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.84643659904010304</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.81251148064851997</v>
+      </c>
+      <c r="G31" s="6">
         <f>GEOMEAN(D31:F31)</f>
-        <v>0.30975398946643906</v>
+        <v>0.84248293243628702</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J31" s="3">
-        <v>0.31255644596315102</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.30812043897952901</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0.27047636518260199</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="J31" s="5">
+        <v>0.81575035328350498</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.80892059213155398</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.78126310825173895</v>
+      </c>
+      <c r="M31" s="6">
         <f>GEOMEAN(J31:L31)</f>
-        <v>0.29643269094669394</v>
-      </c>
+        <v>0.80183835476751408</v>
+      </c>
+      <c r="Q31" s="4"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -1508,41 +2661,42 @@
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="6">
         <f>GEOMEAN(D28:D31)</f>
-        <v>0.64664009609002282</v>
-      </c>
-      <c r="E32" s="3">
+        <v>0.98231799045125301</v>
+      </c>
+      <c r="E32" s="6">
         <f>GEOMEAN(E28:E31)</f>
-        <v>0.62678632905848375</v>
-      </c>
-      <c r="F32" s="3">
+        <v>0.96339167650451507</v>
+      </c>
+      <c r="F32" s="6">
         <f>GEOMEAN(F28:F31)</f>
-        <v>0.58112553554757795</v>
-      </c>
-      <c r="G32" s="3">
+        <v>0.96449286883077434</v>
+      </c>
+      <c r="G32" s="6">
         <f>GEOMEAN(G28:G31)</f>
-        <v>0.61756693438064292</v>
+        <v>0.970028891481169</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="6">
         <f>GEOMEAN(J28:J31)</f>
-        <v>0.60599358261494218</v>
-      </c>
-      <c r="K32" s="3">
+        <v>0.90890512981941562</v>
+      </c>
+      <c r="K32" s="6">
         <f>GEOMEAN(K28:K31)</f>
-        <v>0.59741109869560005</v>
-      </c>
-      <c r="L32" s="3">
+        <v>0.91033133391789023</v>
+      </c>
+      <c r="L32" s="6">
         <f>GEOMEAN(L28:L31)</f>
-        <v>0.55509351992017819</v>
-      </c>
-      <c r="M32" s="3">
+        <v>0.90959801321540323</v>
+      </c>
+      <c r="M32" s="6">
         <f>GEOMEAN(M28:M31)</f>
-        <v>0.58573677234427501</v>
-      </c>
+        <v>0.90961130592173989</v>
+      </c>
+      <c r="Q32" s="4"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -1554,7 +2708,7 @@
       <c r="AG32" s="2"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1585,7 +2739,7 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +2764,7 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="D35" s="2">
         <v>2</v>
       </c>
@@ -1649,25 +2803,25 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="3">
-        <v>1.18450527775674</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1.18857357121594</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1.2233814700280901</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="D36" s="5">
+        <v>1.0695312965378001</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1.06421079241573</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.10424477529158</v>
+      </c>
+      <c r="G36" s="6">
         <f>GEOMEAN(D36:F36)</f>
-        <v>1.1986939751492152</v>
+        <v>1.0791840130842303</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>5</v>
@@ -1675,18 +2829,18 @@
       <c r="I36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="3">
-        <v>1.0886054755877299</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1.10030412622241</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1.11179710250935</v>
-      </c>
-      <c r="M36" s="3">
+      <c r="J36" s="5">
+        <v>0.96512717507704004</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.97703912141050597</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.99546226435316099</v>
+      </c>
+      <c r="M36" s="6">
         <f>GEOMEAN(J36:L36)</f>
-        <v>1.1001948253851705</v>
+        <v>0.9791301709116742</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="2"/>
@@ -1702,40 +2856,40 @@
       <c r="AG36" s="4"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
-        <v>0.75775739460701597</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.73527662677213002</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.72186539678821005</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="D37" s="5">
+        <v>1.04183857347741</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1.02280236183387</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.04327813399687</v>
+      </c>
+      <c r="G37" s="6">
         <f>GEOMEAN(D37:F37)</f>
-        <v>0.73815186713292147</v>
+        <v>1.0359308186856155</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="3">
-        <v>0.709791952605348</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.69682389219694896</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.68200291520407197</v>
-      </c>
-      <c r="M37" s="3">
+      <c r="J37" s="5">
+        <v>0.95864521340877296</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.96446063135534399</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.98160330507350102</v>
+      </c>
+      <c r="M37" s="6">
         <f>GEOMEAN(J37:L37)</f>
-        <v>0.69611358888790298</v>
+        <v>0.96818750818335131</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="4"/>
@@ -1749,121 +2903,121 @@
       <c r="AG37" s="4"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="3">
-        <v>0.58769227235130905</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.55838784758112503</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.53715112681086297</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="D38" s="5">
+        <v>0.99828464842728104</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.97664072344827901</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.98289204762245297</v>
+      </c>
+      <c r="G38" s="6">
         <f>GEOMEAN(D38:F38)</f>
-        <v>0.56069602396463969</v>
+        <v>0.98589730867581815</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="3">
-        <v>0.55433128036393498</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0.53786652067711405</v>
-      </c>
-      <c r="L38" s="3">
-        <v>0.52128934938490401</v>
-      </c>
-      <c r="M38" s="3">
+      <c r="J38" s="5">
+        <v>0.92666619728505795</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.92797205892936596</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.93218364472812398</v>
+      </c>
+      <c r="M38" s="6">
         <f>GEOMEAN(J38:L38)</f>
-        <v>0.53765982147751423</v>
+        <v>0.92893765301382958</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="3">
-        <v>0.33742200190682198</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.32352661084336198</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.29853142200844701</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="D39" s="5">
+        <v>0.88087938972348001</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.85863387401355895</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.829575416195241</v>
+      </c>
+      <c r="G39" s="6">
         <f>GEOMEAN(D39:F39)</f>
-        <v>0.31941684711060087</v>
+        <v>0.85610450039684693</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="3">
-        <v>0.31439023701271901</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0.31009239616335799</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0.288536573604595</v>
-      </c>
-      <c r="M39" s="3">
+      <c r="J39" s="5">
+        <v>0.82490706424163096</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.81964698791650403</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.79492532751410805</v>
+      </c>
+      <c r="M39" s="6">
         <f>GEOMEAN(J39:L39)</f>
-        <v>0.30412609066719809</v>
+        <v>0.81305402010375227</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="6">
         <f>GEOMEAN(D36:D39)</f>
-        <v>0.64952764526701201</v>
-      </c>
-      <c r="E40" s="3">
+        <v>0.99492694534699588</v>
+      </c>
+      <c r="E40" s="6">
         <f>GEOMEAN(E36:E39)</f>
-        <v>0.63034846417512658</v>
-      </c>
-      <c r="F40" s="3">
+        <v>0.97744101117165416</v>
+      </c>
+      <c r="F40" s="6">
         <f>GEOMEAN(F36:F39)</f>
-        <v>0.61344575531591328</v>
-      </c>
-      <c r="G40" s="3">
+        <v>0.98447975185217784</v>
+      </c>
+      <c r="G40" s="6">
         <f>GEOMEAN(G36:G39)</f>
-        <v>0.63093531268320324</v>
+        <v>0.98558975267380722</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="6">
         <f>GEOMEAN(J36:J39)</f>
-        <v>0.6057731301076017</v>
-      </c>
-      <c r="K40" s="3">
+        <v>0.91704933249899445</v>
+      </c>
+      <c r="K40" s="6">
         <f>GEOMEAN(K36:K39)</f>
-        <v>0.59799885308514023</v>
-      </c>
-      <c r="L40" s="3">
+        <v>0.92010957754536993</v>
+      </c>
+      <c r="L40" s="6">
         <f>GEOMEAN(L36:L39)</f>
-        <v>0.58112943383665405</v>
-      </c>
-      <c r="M40" s="3">
+        <v>0.92245917909795283</v>
+      </c>
+      <c r="M40" s="6">
         <f>GEOMEAN(M36:M39)</f>
-        <v>0.59487777423582822</v>
+        <v>0.91987002912892779</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1882,7 +3036,7 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7"/>
       <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1895,7 +3049,7 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
         <v>2</v>
@@ -1923,25 +3077,25 @@
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="3">
-        <v>1.16997258966305</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1.16751848620265</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1.16787150120366</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="D44" s="5">
+        <v>1.0693573624401</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1.06422953169465</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1.1031862590811301</v>
+      </c>
+      <c r="G44" s="6">
         <f>GEOMEAN(D44:F44)</f>
-        <v>1.1684536903841518</v>
+        <v>1.0787869178972675</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>5</v>
@@ -1949,173 +3103,173 @@
       <c r="I44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="3">
-        <v>1.0802204056945599</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1.08651687421104</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1.0753066164162799</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="J44" s="5">
+        <v>0.96524954309063804</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.97712322556896403</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.99482815994731599</v>
+      </c>
+      <c r="M44" s="6">
         <f>GEOMEAN(J44:L44)</f>
-        <v>1.0806715630344856</v>
+        <v>0.97899168618281585</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="3">
-        <v>0.74513560379647703</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.71673697812572501</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.67860320884657499</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="D45" s="5">
+        <v>1.0416464425257499</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.0228362575132199</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1.04213459818601</v>
+      </c>
+      <c r="G45" s="6">
         <f>GEOMEAN(D45:F45)</f>
-        <v>0.7129685043276176</v>
+        <v>1.03549996361417</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J45" s="3">
-        <v>0.70115071035292797</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0.68280000136820396</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0.64797376758237002</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="J45" s="5">
+        <v>0.95872794428571595</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.96452703480671698</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.98090725376384802</v>
+      </c>
+      <c r="M45" s="6">
         <f>GEOMEAN(J45:L45)</f>
-        <v>0.67694612307450464</v>
+        <v>0.96800866696296062</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="3">
-        <v>0.57512751265189199</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.542539361570339</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.50122859709387102</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="D46" s="5">
+        <v>0.99810388206813605</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.97665089299188501</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.98181949074341102</v>
+      </c>
+      <c r="G46" s="6">
         <f>GEOMEAN(D46:F46)</f>
-        <v>0.5387786928666507</v>
+        <v>0.98548249686559219</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="3">
-        <v>0.546387659609194</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0.52631601395379302</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0.49123492785929002</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="J46" s="5">
+        <v>0.92673408104391997</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.92802063197567997</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.93141065233583697</v>
+      </c>
+      <c r="M46" s="6">
         <f>GEOMEAN(J46:L46)</f>
-        <v>0.52080950490338696</v>
+        <v>0.92871969515425801</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="3">
-        <v>0.32611375020116001</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.31071151826950899</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.27578093579395802</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="D47" s="5">
+        <v>0.88063182281546504</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.85869959027607401</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.82856496260768497</v>
+      </c>
+      <c r="G47" s="6">
         <f>GEOMEAN(D47:F47)</f>
-        <v>0.30345681941107622</v>
+        <v>0.85569842331172608</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
-        <v>0.30563622522434297</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0.299511898094516</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0.26750963596268501</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="J47" s="5">
+        <v>0.82496838685013596</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.81968088023067898</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.79412362482374199</v>
+      </c>
+      <c r="M47" s="6">
         <f>GEOMEAN(J47:L47)</f>
-        <v>0.29039297925087221</v>
+        <v>0.81281194231904363</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="6">
         <f>GEOMEAN(D44:D47)</f>
-        <v>0.63589595759168993</v>
-      </c>
-      <c r="E48" s="3">
+        <v>0.99472567954237689</v>
+      </c>
+      <c r="E48" s="6">
         <f>GEOMEAN(E44:E47)</f>
-        <v>0.61284838442396439</v>
-      </c>
-      <c r="F48" s="3">
+        <v>0.97747465858231286</v>
+      </c>
+      <c r="F48" s="6">
         <f>GEOMEAN(F44:F47)</f>
-        <v>0.57531111275279545</v>
-      </c>
-      <c r="G48" s="3">
+        <v>0.9834056926858713</v>
+      </c>
+      <c r="G48" s="6">
         <f>GEOMEAN(G44:G47)</f>
-        <v>0.60750141089359222</v>
+        <v>0.98517606387003587</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="6">
         <f>GEOMEAN(J44:J47)</f>
-        <v>0.59635843472172456</v>
-      </c>
-      <c r="K48" s="3">
+        <v>0.9171320235395648</v>
+      </c>
+      <c r="K48" s="6">
         <f>GEOMEAN(K44:K47)</f>
-        <v>0.58478693749299859</v>
-      </c>
-      <c r="L48" s="3">
+        <v>0.92016676776914763</v>
+      </c>
+      <c r="L48" s="6">
         <f>GEOMEAN(L44:L47)</f>
-        <v>0.55008474701604526</v>
-      </c>
-      <c r="M48" s="3">
+        <v>0.92172492829298391</v>
+      </c>
+      <c r="M48" s="6">
         <f>GEOMEAN(M44:M47)</f>
-        <v>0.576737526761254</v>
+        <v>0.91967259489685571</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2134,7 +3288,7 @@
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
+      <c r="A50" s="7"/>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
@@ -2147,7 +3301,7 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
+      <c r="A51" s="7"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
         <v>2</v>
@@ -2175,25 +3329,25 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="3">
-        <v>1.1792467493719501</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1.1650582125773401</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1.1677617725774201</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="D52" s="5">
+        <v>1.0558295811367799</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1.04760196593826</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1.0810021477084799</v>
+      </c>
+      <c r="G52" s="6">
         <f>GEOMEAN(D52:F52)</f>
-        <v>1.1706727856629069</v>
+        <v>1.0613832484883703</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>5</v>
@@ -2201,173 +3355,173 @@
       <c r="I52" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
-        <v>1.0884532706905601</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1.0851884745679199</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1.07671719933475</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="J52" s="5">
+        <v>0.95784988763437795</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.96781217577420398</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.98346779718663302</v>
+      </c>
+      <c r="M52" s="6">
         <f>GEOMEAN(J52:L52)</f>
-        <v>1.0834416759708567</v>
+        <v>0.96965273333460478</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="3">
-        <v>0.75225956939253602</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0.71375492278405905</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.67762581762860896</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="D53" s="5">
+        <v>1.0274854429251301</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.00597714482042</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1.0202225999057299</v>
+      </c>
+      <c r="G53" s="6">
         <f>GEOMEAN(D53:F53)</f>
-        <v>0.71389706091233585</v>
+        <v>1.0178557720628121</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J53" s="3">
-        <v>0.70804487960087303</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0.68028154769453597</v>
-      </c>
-      <c r="L53" s="3">
-        <v>0.64827104020177695</v>
-      </c>
-      <c r="M53" s="3">
+      <c r="J53" s="5">
+        <v>0.95039260111494495</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.95445420036981898</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.968785497199385</v>
+      </c>
+      <c r="M53" s="6">
         <f>GEOMEAN(J53:L53)</f>
-        <v>0.6784252960949444</v>
+        <v>0.95784504360328293</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="3">
-        <v>0.58195893776104901</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.53988256317817696</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.50023859681188099</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="D54" s="5">
+        <v>0.98420854538475899</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.96049661441988599</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.96223770957108801</v>
+      </c>
+      <c r="G54" s="6">
         <f>GEOMEAN(D54:F54)</f>
-        <v>0.53966337742185788</v>
+        <v>0.96892117575757353</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J54" s="3">
-        <v>0.55352769567523397</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0.52359674309087201</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0.490467439404769</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="J54" s="5">
+        <v>0.91758205992133202</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.91704801063233299</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.918237927093846</v>
+      </c>
+      <c r="M54" s="6">
         <f>GEOMEAN(J54:L54)</f>
-        <v>0.52189382429640929</v>
+        <v>0.91762253685476458</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="3">
-        <v>0.33059568762826902</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.30994681960543302</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.27521963365135299</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="D55" s="5">
+        <v>0.86869334115585195</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.844981891503088</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.81170720634252602</v>
+      </c>
+      <c r="G55" s="6">
         <f>GEOMEAN(D55:F55)</f>
-        <v>0.30438360780023282</v>
+        <v>0.84146831077644135</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="3">
-        <v>0.312008959866238</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0.29909156940083997</v>
-      </c>
-      <c r="L55" s="3">
-        <v>0.26706351648447901</v>
-      </c>
-      <c r="M55" s="3">
+      <c r="J55" s="5">
+        <v>0.81520220248719399</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.80816048156595099</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.78080156552445301</v>
+      </c>
+      <c r="M55" s="6">
         <f>GEOMEAN(J55:L55)</f>
-        <v>0.29209801129083612</v>
+        <v>0.80124969384178968</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="6">
         <f>GEOMEAN(D52:D55)</f>
-        <v>0.64274762991254408</v>
-      </c>
-      <c r="E56" s="3">
+        <v>0.98136548987774697</v>
+      </c>
+      <c r="E56" s="6">
         <f>GEOMEAN(E52:E55)</f>
-        <v>0.61076031008273957</v>
-      </c>
-      <c r="F56" s="3">
+        <v>0.96168294638540364</v>
+      </c>
+      <c r="F56" s="6">
         <f>GEOMEAN(F52:F55)</f>
-        <v>0.57451345218042138</v>
-      </c>
-      <c r="G56" s="3">
+        <v>0.96338708007472762</v>
+      </c>
+      <c r="G56" s="6">
         <f>GEOMEAN(G52:G55)</f>
-        <v>0.60870074174393152</v>
+        <v>0.96877109281924612</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="6">
         <f>GEOMEAN(J52:J55)</f>
-        <v>0.60401016723702872</v>
-      </c>
-      <c r="K56" s="3">
+        <v>0.90840117934173459</v>
+      </c>
+      <c r="K56" s="6">
         <f>GEOMEAN(K52:K55)</f>
-        <v>0.5831076551235358</v>
-      </c>
-      <c r="L56" s="3">
+        <v>0.90961782975818273</v>
+      </c>
+      <c r="L56" s="6">
         <f>GEOMEAN(L52:L55)</f>
-        <v>0.54988358318470132</v>
-      </c>
-      <c r="M56" s="3">
+        <v>0.90911938607722154</v>
+      </c>
+      <c r="M56" s="6">
         <f>GEOMEAN(M52:M55)</f>
-        <v>0.57856822969324828</v>
+        <v>0.90904599454383073</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2386,7 +3540,7 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
+      <c r="A58" s="7"/>
       <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
@@ -2399,7 +3553,7 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
+      <c r="A59" s="7"/>
       <c r="D59">
         <v>2</v>
       </c>
@@ -2426,25 +3580,25 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="3">
-        <v>1.0560028666811001</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1.0300895307767399</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.98635415695973006</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="D60" s="5">
+        <v>1.0692381859906299</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1.0373160385958999</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1.0232560637229</v>
+      </c>
+      <c r="G60" s="6">
         <f>GEOMEAN(D60:F60)</f>
-        <v>1.023743089581012</v>
+        <v>1.0430936303680722</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>5</v>
@@ -2452,110 +3606,110 @@
       <c r="I60" t="s">
         <v>0</v>
       </c>
-      <c r="J60" s="3">
-        <v>0.98476580582929796</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0.97406781301402401</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0.94339941913073</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="J60" s="5">
+        <v>0.96812571259787406</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.96707352322590001</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.96357050378850695</v>
+      </c>
+      <c r="M60" s="6">
         <f>GEOMEAN(J60:L60)</f>
-        <v>0.9672511449502833</v>
+        <v>0.96625461618062802</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="3">
-        <v>1.05240417738433</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1.0247149521065799</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.98791936967917304</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="D61" s="5">
+        <v>1.0711509833739401</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1.0357229311486</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1.02451298815799</v>
+      </c>
+      <c r="G61" s="6">
         <f>GEOMEAN(D61:F61)</f>
-        <v>1.0213369536742078</v>
+        <v>1.0436076413229503</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="3">
-        <v>0.981048284083607</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0.97722107243699396</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0.96213347984987097</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="J61" s="5">
+        <v>0.97782040839761697</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.97793251173983098</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0.98351939162804103</v>
+      </c>
+      <c r="M61" s="6">
         <f t="shared" ref="M61:M63" si="9">GEOMEAN(J61:L61)</f>
-        <v>0.97343325260570868</v>
+        <v>0.97975382961618729</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="1"/>
       <c r="C62" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="3">
-        <v>1.0516967094938401</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1.02520003898663</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1.0020520981041301</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="D62" s="5">
+        <v>1.0665521648848599</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1.0356716865346001</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1.0212169168872001</v>
+      </c>
+      <c r="G62" s="6">
         <f>GEOMEAN(D62:F62)</f>
-        <v>1.0261160411788695</v>
+        <v>1.0409760439932174</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" t="s">
         <v>2</v>
       </c>
-      <c r="J62" s="3">
-        <v>0.97818859894856203</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0.98147652920477502</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0.97346946386611299</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="J62" s="5">
+        <v>0.97460928398468805</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.98008723465191205</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0.977253918405941</v>
+      </c>
+      <c r="M62" s="6">
         <f t="shared" si="9"/>
-        <v>0.97770600523486706</v>
+        <v>0.97731425279212136</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="1"/>
       <c r="C63" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="5">
         <v>1.0428642074413801</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="5">
         <v>1.0265770752832999</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="5">
         <v>0.98599374283393504</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="6">
         <f>GEOMEAN(D63:F63)</f>
         <v>1.0181954709349592</v>
       </c>
@@ -2563,16 +3717,16 @@
       <c r="I63" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="5">
         <v>0.96364752563588796</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="5">
         <v>0.97077699455370903</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="5">
         <v>0.96014742398462605</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="6">
         <f t="shared" si="9"/>
         <v>0.96484718888082177</v>
       </c>
@@ -2581,44 +3735,44 @@
       <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="6">
         <f>GEOMEAN(D60:D63)</f>
-        <v>1.0507308520989349</v>
-      </c>
-      <c r="E64" s="3">
+        <v>1.062389460846165</v>
+      </c>
+      <c r="E64" s="6">
         <f>GEOMEAN(E60:E63)</f>
-        <v>1.0266432487694419</v>
-      </c>
-      <c r="F64" s="3">
+        <v>1.0338132342949369</v>
+      </c>
+      <c r="F64" s="6">
         <f>GEOMEAN(F60:F63)</f>
-        <v>0.99055754449080924</v>
-      </c>
-      <c r="G64" s="3">
+        <v>1.0136160732704935</v>
+      </c>
+      <c r="G64" s="6">
         <f>GEOMEAN(G60:G63)</f>
-        <v>1.0223436802707195</v>
+        <v>1.0364136160503963</v>
       </c>
       <c r="I64" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="6">
         <f>GEOMEAN(J60:J63)</f>
-        <v>0.9768795934161153</v>
-      </c>
-      <c r="K64" s="3">
+        <v>0.97103503977214545</v>
+      </c>
+      <c r="K64" s="6">
         <f t="shared" ref="K64" si="10">GEOMEAN(K60:K63)</f>
-        <v>0.97587760713324423</v>
-      </c>
-      <c r="L64" s="3">
+        <v>0.97395332955890113</v>
+      </c>
+      <c r="L64" s="6">
         <f t="shared" ref="L64" si="11">GEOMEAN(L60:L63)</f>
-        <v>0.95972718446173111</v>
-      </c>
-      <c r="M64" s="3">
+        <v>0.97107537555769785</v>
+      </c>
+      <c r="M64" s="6">
         <f>GEOMEAN(M60:M63)</f>
-        <v>0.97079618767744014</v>
+        <v>0.97202028869485435</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2637,7 +3791,7 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
+      <c r="A66" s="7"/>
       <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
@@ -2650,7 +3804,7 @@
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
+      <c r="A67" s="7"/>
       <c r="D67">
         <v>2</v>
       </c>
@@ -2671,25 +3825,25 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
       </c>
-      <c r="D68" s="4">
-        <v>1.0560028666811001</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1.04514005041323</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1.0614353954587701</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="D68" s="5">
+        <v>1.0692381859906299</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1.0446037868689699</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1.06464481985759</v>
+      </c>
+      <c r="G68" s="6">
         <f>GEOMEAN(D68:F68)</f>
-        <v>1.0541709671513604</v>
+        <v>1.0594413852308702</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>5</v>
@@ -2697,173 +3851,173 @@
       <c r="I68" t="s">
         <v>0</v>
       </c>
-      <c r="J68" s="4">
-        <v>0.98476580582929796</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0.96975921926139896</v>
-      </c>
-      <c r="L68" s="4">
-        <v>0.96692278063616599</v>
-      </c>
-      <c r="M68" s="3">
+      <c r="J68" s="5">
+        <v>0.96812571259787406</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0.96004000335051898</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.96951317244848101</v>
+      </c>
+      <c r="M68" s="6">
         <f>GEOMEAN(J68:L68)</f>
-        <v>0.97378457249963346</v>
+        <v>0.96588391302539334</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="1"/>
       <c r="C69" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="4">
-        <v>0.63870584200882796</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0.618422356942533</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0.61612237371784795</v>
-      </c>
-      <c r="G69" s="3">
+      <c r="D69" s="5">
+        <v>1.0413364521395601</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1.0038154628093801</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1.00508755493143</v>
+      </c>
+      <c r="G69" s="6">
         <f>GEOMEAN(D69:F69)</f>
-        <v>0.62433500194015557</v>
+        <v>1.0165988545193341</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" t="s">
         <v>1</v>
       </c>
-      <c r="J69" s="4">
-        <v>0.60745250060737899</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0.59081198832616</v>
-      </c>
-      <c r="L69" s="4">
-        <v>0.58904039794798502</v>
-      </c>
-      <c r="M69" s="3">
+      <c r="J69" s="5">
+        <v>0.95911889557052399</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0.94559135515826398</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.95406134798004105</v>
+      </c>
+      <c r="M69" s="6">
         <f t="shared" ref="M69:M71" si="12">GEOMEAN(J69:L69)</f>
-        <v>0.59571092935553827</v>
+        <v>0.95290750465918928</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="1"/>
       <c r="C70" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="4">
-        <v>0.48166940913591</v>
-      </c>
-      <c r="E70" s="4">
-        <v>0.45424899595852902</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0.45240110906330999</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="D70" s="5">
+        <v>0.99860616691736603</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.95778858773632602</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.94628352074400801</v>
+      </c>
+      <c r="G70" s="6">
         <f>GEOMEAN(D70:F70)</f>
-        <v>0.46258218235939552</v>
+        <v>0.96730119937385017</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" t="s">
         <v>2</v>
       </c>
-      <c r="J70" s="4">
-        <v>0.45690836232572701</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0.43725551951922398</v>
-      </c>
-      <c r="L70" s="4">
-        <v>0.43664271417968997</v>
-      </c>
-      <c r="M70" s="3">
+      <c r="J70" s="5">
+        <v>0.926548149282302</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0.90839634783366596</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0.904482688104712</v>
+      </c>
+      <c r="M70" s="6">
         <f t="shared" si="12"/>
-        <v>0.4435033196895668</v>
+        <v>0.91309201260405071</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="1"/>
       <c r="C71" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="4">
-        <v>0.27298049892859899</v>
-      </c>
-      <c r="E71" s="4">
-        <v>0.26369531544805103</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0.25299769118118598</v>
-      </c>
-      <c r="G71" s="3">
+      <c r="D71" s="5">
+        <v>0.886066834225825</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.84692846462184801</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.80088791060113595</v>
+      </c>
+      <c r="G71" s="6">
         <f>GEOMEAN(D71:F71)</f>
-        <v>0.26309758715761955</v>
+        <v>0.84390776479132046</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" t="s">
         <v>3</v>
       </c>
-      <c r="J71" s="4">
-        <v>0.25388893422245601</v>
-      </c>
-      <c r="K71" s="4">
-        <v>0.25098164077922902</v>
-      </c>
-      <c r="L71" s="4">
-        <v>0.24314021007922501</v>
-      </c>
-      <c r="M71" s="3">
+      <c r="J71" s="5">
+        <v>0.82209545299622</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0.79859093407938697</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.76733762675568395</v>
+      </c>
+      <c r="M71" s="6">
         <f t="shared" si="12"/>
-        <v>0.24929534629917796</v>
+        <v>0.79569086493281449</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="6">
         <f>GEOMEAN(D68:D71)</f>
-        <v>0.5457096937788305</v>
-      </c>
-      <c r="E72" s="3">
+        <v>0.99628034874954363</v>
+      </c>
+      <c r="E72" s="6">
         <f>GEOMEAN(E68:E71)</f>
-        <v>0.52748973870822002</v>
-      </c>
-      <c r="F72" s="3">
+        <v>0.9603520464222749</v>
+      </c>
+      <c r="F72" s="6">
         <f>GEOMEAN(F68:F71)</f>
-        <v>0.52305841223922633</v>
-      </c>
-      <c r="G72" s="3">
+        <v>0.94896547862550762</v>
+      </c>
+      <c r="G72" s="6">
         <f>GEOMEAN(G68:G71)</f>
-        <v>0.53199631629030186</v>
+        <v>0.96832426474118916</v>
       </c>
       <c r="I72" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="6">
         <f>GEOMEAN(J68:J71)</f>
-        <v>0.5132506887621231</v>
-      </c>
-      <c r="K72" s="3">
+        <v>0.9170618144538033</v>
+      </c>
+      <c r="K72" s="6">
         <f t="shared" ref="K72" si="13">GEOMEAN(K68:K71)</f>
-        <v>0.50075191365679861</v>
-      </c>
-      <c r="L72" s="3">
+        <v>0.90084100100834463</v>
+      </c>
+      <c r="L72" s="6">
         <f t="shared" ref="L72" si="14">GEOMEAN(L68:L71)</f>
-        <v>0.49588385605475183</v>
-      </c>
-      <c r="M72" s="3">
+        <v>0.89511573647298082</v>
+      </c>
+      <c r="M72" s="6">
         <f>GEOMEAN(M68:M71)</f>
-        <v>0.50324257519578308</v>
+        <v>0.90429191714903989</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2882,7 +4036,7 @@
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
+      <c r="A74" s="7"/>
       <c r="D74" s="1" t="s">
         <v>4</v>
       </c>
@@ -2895,7 +4049,7 @@
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
+      <c r="A75" s="7"/>
       <c r="D75">
         <v>2</v>
       </c>
@@ -2916,25 +4070,25 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="3">
-        <v>1.2190587323742399</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1.1883951370797201</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1.1350798937645801</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="D76" s="5">
+        <v>1.10771809530819</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1.08822058173877</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1.0940910265725701</v>
+      </c>
+      <c r="G76" s="6">
         <f>GEOMEAN(D76:F76)</f>
-        <v>1.1803314403881873</v>
+        <v>1.0966462232639778</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>5</v>
@@ -2942,173 +4096,173 @@
       <c r="I76" t="s">
         <v>0</v>
       </c>
-      <c r="J76" s="3">
-        <v>1.09619227296699</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1.0896326063400901</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1.0499745222524399</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="J76" s="5">
+        <v>0.98443783120777095</v>
+      </c>
+      <c r="K76" s="5">
+        <v>0.99499113948349505</v>
+      </c>
+      <c r="L76" s="5">
+        <v>1.0017289507743701</v>
+      </c>
+      <c r="M76" s="6">
         <f>GEOMEAN(J76:L76)</f>
-        <v>1.0784049252527999</v>
+        <v>0.99369379493011167</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="1"/>
       <c r="C77" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="3">
-        <v>0.79518367645807198</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0.72722359267995496</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0.64671280668028297</v>
-      </c>
-      <c r="G77" s="3">
+      <c r="D77" s="5">
+        <v>1.0799365728096699</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1.04475003630573</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1.0307584855944101</v>
+      </c>
+      <c r="G77" s="6">
         <f t="shared" ref="G77:G79" si="15">GEOMEAN(D77:F77)</f>
-        <v>0.72046954225481297</v>
+        <v>1.0516127773769228</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" t="s">
         <v>1</v>
       </c>
-      <c r="J77" s="3">
-        <v>0.73361672707371295</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0.69102750200816498</v>
-      </c>
-      <c r="L77" s="3">
-        <v>0.635456279156566</v>
-      </c>
-      <c r="M77" s="3">
+      <c r="J77" s="5">
+        <v>0.97729441909486703</v>
+      </c>
+      <c r="K77" s="5">
+        <v>0.98029110816616905</v>
+      </c>
+      <c r="L77" s="5">
+        <v>0.98417854946649896</v>
+      </c>
+      <c r="M77" s="6">
         <f t="shared" ref="M77:M79" si="16">GEOMEAN(J77:L77)</f>
-        <v>0.68551465592248462</v>
+        <v>0.98058397684835275</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="1"/>
       <c r="C78" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="3">
-        <v>0.62259521282084096</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0.545350071452949</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0.46457962308858503</v>
-      </c>
-      <c r="G78" s="3">
+      <c r="D78" s="5">
+        <v>1.03534673614966</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.99576109896209397</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.96885002175003299</v>
+      </c>
+      <c r="G78" s="6">
         <f t="shared" si="15"/>
-        <v>0.5403150976596226</v>
+        <v>0.99961441280841123</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" t="s">
         <v>2</v>
       </c>
-      <c r="J78" s="3">
-        <v>0.57541495044604296</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0.52313331382759298</v>
-      </c>
-      <c r="L78" s="3">
-        <v>0.46271690230103901</v>
-      </c>
-      <c r="M78" s="3">
+      <c r="J78" s="5">
+        <v>0.945518452369983</v>
+      </c>
+      <c r="K78" s="5">
+        <v>0.94333653657809902</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0.93333369020984902</v>
+      </c>
+      <c r="M78" s="6">
         <f t="shared" si="16"/>
-        <v>0.51836574475356956</v>
+        <v>0.94071456668230491</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="3">
-        <v>0.36675975422733198</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0.31526395598922202</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0.24658666270271101</v>
-      </c>
-      <c r="G79" s="3">
+      <c r="D79" s="5">
+        <v>0.91573492934719702</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.87829514469105996</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.81376954803273205</v>
+      </c>
+      <c r="G79" s="6">
         <f t="shared" si="15"/>
-        <v>0.30549810847330083</v>
+        <v>0.86823488612985866</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" t="s">
         <v>3</v>
       </c>
-      <c r="J79" s="3">
-        <v>0.33744196551900701</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0.30321724408535</v>
-      </c>
-      <c r="L79" s="3">
-        <v>0.24690703812666501</v>
-      </c>
-      <c r="M79" s="3">
+      <c r="J79" s="5">
+        <v>0.84416430190154101</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0.83532510519620695</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0.79464496072083102</v>
+      </c>
+      <c r="M79" s="6">
         <f t="shared" si="16"/>
-        <v>0.29342390056396989</v>
+        <v>0.8244263868091587</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="6">
         <f>GEOMEAN(D76:D79)</f>
-        <v>0.68591434243031713</v>
-      </c>
-      <c r="E80" s="3">
+        <v>1.0319787973620453</v>
+      </c>
+      <c r="E80" s="6">
         <f t="shared" ref="E80" si="17">GEOMEAN(E76:E79)</f>
-        <v>0.62086135770262041</v>
-      </c>
-      <c r="F80" s="3">
+        <v>0.99857627165202789</v>
+      </c>
+      <c r="F80" s="6">
         <f t="shared" ref="F80" si="18">GEOMEAN(F76:F79)</f>
-        <v>0.53850768825603146</v>
-      </c>
-      <c r="G80" s="3">
+        <v>0.97105111347971274</v>
+      </c>
+      <c r="G80" s="6">
         <f>GEOMEAN(G76:G79)</f>
-        <v>0.61209496554953513</v>
+        <v>1.0002257610831904</v>
       </c>
       <c r="I80" t="s">
         <v>10</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="6">
         <f>GEOMEAN(J76:J79)</f>
-        <v>0.62861399958605546</v>
-      </c>
-      <c r="K80" s="3">
+        <v>0.93611170643387487</v>
+      </c>
+      <c r="K80" s="6">
         <f t="shared" ref="K80" si="19">GEOMEAN(K76:K79)</f>
-        <v>0.58787558519178951</v>
-      </c>
-      <c r="L80" s="3">
+        <v>0.93631960427805716</v>
+      </c>
+      <c r="L80" s="6">
         <f t="shared" ref="L80" si="20">GEOMEAN(L76:L79)</f>
-        <v>0.52544627492633611</v>
-      </c>
-      <c r="M80" s="3">
+        <v>0.92471637711062238</v>
+      </c>
+      <c r="M80" s="6">
         <f>GEOMEAN(M76:M79)</f>
-        <v>0.57907204117906175</v>
+        <v>0.93236675719584372</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3127,7 +4281,7 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
+      <c r="A82" s="7"/>
       <c r="D82" s="1" t="s">
         <v>4</v>
       </c>
@@ -3140,7 +4294,7 @@
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
+      <c r="A83" s="7"/>
       <c r="D83">
         <v>2</v>
       </c>
@@ -3161,25 +4315,25 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
       </c>
-      <c r="D84" s="3">
-        <v>1.1480403148342599</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1.15580443854662</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1.15696759645794</v>
-      </c>
-      <c r="G84" s="3">
+      <c r="D84" s="5">
+        <v>1.0608965694160899</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1.0549311914792101</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1.07847173975732</v>
+      </c>
+      <c r="G84" s="6">
         <f>GEOMEAN(D84:F84)</f>
-        <v>1.1535973000096882</v>
+        <v>1.06471976438042</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>5</v>
@@ -3187,173 +4341,173 @@
       <c r="I84" t="s">
         <v>0</v>
       </c>
-      <c r="J84" s="3">
-        <v>1.0654788235385599</v>
-      </c>
-      <c r="K84" s="3">
-        <v>1.0698606092257399</v>
-      </c>
-      <c r="L84" s="3">
-        <v>1.05970465947327</v>
-      </c>
-      <c r="M84" s="3">
+      <c r="J84" s="5">
+        <v>0.96429812522486003</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0.97214905748679004</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0.98702110059169401</v>
+      </c>
+      <c r="M84" s="6">
         <f>GEOMEAN(J84:L84)</f>
-        <v>1.0650065727044626</v>
+        <v>0.97444397118497983</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
         <v>1</v>
       </c>
-      <c r="D85" s="3">
-        <v>0.71579604980598299</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0.70361019623213195</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0.67152748327641598</v>
-      </c>
-      <c r="G85" s="3">
+      <c r="D85" s="5">
+        <v>1.02950854261156</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1.01239513415271</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1.01598780547616</v>
+      </c>
+      <c r="G85" s="6">
         <f t="shared" ref="G85:G87" si="21">GEOMEAN(D85:F85)</f>
-        <v>0.69672555106405554</v>
+        <v>1.0192706050784905</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" t="s">
         <v>1</v>
       </c>
-      <c r="J85" s="3">
-        <v>0.68425467715319499</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0.67460035777105398</v>
-      </c>
-      <c r="L85" s="3">
-        <v>0.65061180768000304</v>
-      </c>
-      <c r="M85" s="3">
+      <c r="J85" s="5">
+        <v>0.95359883973730697</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0.95717566452440805</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0.97051026736280399</v>
+      </c>
+      <c r="M85" s="6">
         <f t="shared" ref="M85:M87" si="22">GEOMEAN(J85:L85)</f>
-        <v>0.66967192818200094</v>
+        <v>0.96040076853339207</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="3">
-        <v>0.54854073465047004</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0.52670830271332603</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0.49011441619125001</v>
-      </c>
-      <c r="G86" s="3">
+      <c r="D86" s="5">
+        <v>0.98640073458722999</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.96357670778265903</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.95674534553266699</v>
+      </c>
+      <c r="G86" s="6">
         <f t="shared" si="21"/>
-        <v>0.52122532451407744</v>
+        <v>0.96882502043463736</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" t="s">
         <v>2</v>
       </c>
-      <c r="J86" s="3">
-        <v>0.52630601128628296</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0.51060287719768704</v>
-      </c>
-      <c r="L86" s="3">
-        <v>0.48265408002100202</v>
-      </c>
-      <c r="M86" s="3">
+      <c r="J86" s="5">
+        <v>0.91959334888148303</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.91921937817879495</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0.91950964024785198</v>
+      </c>
+      <c r="M86" s="6">
         <f t="shared" si="22"/>
-        <v>0.50619656056951801</v>
+        <v>0.91944077513718803</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="3">
-        <v>0.30660369898911199</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0.29920989343410997</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0.26855014672021599</v>
-      </c>
-      <c r="G87" s="3">
+      <c r="D87" s="5">
+        <v>0.86905742578337797</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0.84836382095267604</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.80603882839319996</v>
+      </c>
+      <c r="G87" s="6">
         <f t="shared" si="21"/>
-        <v>0.29097761364252023</v>
+        <v>0.84074093319974064</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" t="s">
         <v>3</v>
       </c>
-      <c r="J87" s="3">
-        <v>0.29211543927591799</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0.29144203599143798</v>
-      </c>
-      <c r="L87" s="3">
-        <v>0.26544991952590302</v>
-      </c>
-      <c r="M87" s="3">
+      <c r="J87" s="5">
+        <v>0.81659630856652798</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0.81064633530950503</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0.78274866760684203</v>
+      </c>
+      <c r="M87" s="6">
         <f t="shared" si="22"/>
-        <v>0.282724275977217</v>
+        <v>0.8031938806796094</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="6">
         <f>GEOMEAN(D84:D87)</f>
-        <v>0.60972384205505448</v>
-      </c>
-      <c r="E88" s="3">
+        <v>0.98367405187123569</v>
+      </c>
+      <c r="E88" s="6">
         <f t="shared" ref="E88" si="23">GEOMEAN(E84:E87)</f>
-        <v>0.59832982131102108</v>
-      </c>
-      <c r="F88" s="3">
+        <v>0.96663085520902325</v>
+      </c>
+      <c r="F88" s="6">
         <f t="shared" ref="F88" si="24">GEOMEAN(F84:F87)</f>
-        <v>0.56549265000974158</v>
-      </c>
-      <c r="G88" s="3">
+        <v>0.95876549640383302</v>
+      </c>
+      <c r="G88" s="6">
         <f>GEOMEAN(G84:G87)</f>
-        <v>0.59088132438173324</v>
+        <v>0.96963456495005651</v>
       </c>
       <c r="I88" t="s">
         <v>10</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="6">
         <f>GEOMEAN(J84:J87)</f>
-        <v>0.57861389641088612</v>
-      </c>
-      <c r="K88" s="3">
+        <v>0.91158058633168415</v>
+      </c>
+      <c r="K88" s="6">
         <f t="shared" ref="K88" si="25">GEOMEAN(K84:K87)</f>
-        <v>0.57246943459024047</v>
-      </c>
-      <c r="L88" s="3">
+        <v>0.9125229077997703</v>
+      </c>
+      <c r="L88" s="6">
         <f t="shared" ref="L88" si="26">GEOMEAN(L84:L87)</f>
-        <v>0.54516923675038476</v>
-      </c>
-      <c r="M88" s="3">
+        <v>0.91122641092770729</v>
+      </c>
+      <c r="M88" s="6">
         <f>GEOMEAN(M84:M87)</f>
-        <v>0.5652286515380609</v>
+        <v>0.91177647088444003</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3372,7 +4526,7 @@
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
+      <c r="A90" s="7"/>
       <c r="D90" s="1" t="s">
         <v>4</v>
       </c>
@@ -3385,7 +4539,7 @@
       <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
+      <c r="A91" s="7"/>
       <c r="D91">
         <v>2</v>
       </c>
@@ -3406,25 +4560,25 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>0</v>
       </c>
-      <c r="D92" s="3">
-        <v>1.1725797159497799</v>
-      </c>
-      <c r="E92" s="3">
-        <v>1.17649314348594</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1.1998090627870699</v>
-      </c>
-      <c r="G92" s="3">
+      <c r="D92" s="5">
+        <v>1.07649701171881</v>
+      </c>
+      <c r="E92" s="5">
+        <v>1.0704535728860001</v>
+      </c>
+      <c r="F92" s="5">
+        <v>1.0995133147576599</v>
+      </c>
+      <c r="G92" s="6">
         <f>GEOMEAN(D92:F92)</f>
-        <v>1.182899836918432</v>
+        <v>1.0820825308719144</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>5</v>
@@ -3432,173 +4586,173 @@
       <c r="I92" t="s">
         <v>0</v>
       </c>
-      <c r="J92" s="3">
-        <v>1.0809402323519399</v>
-      </c>
-      <c r="K92" s="3">
-        <v>1.08556825433949</v>
-      </c>
-      <c r="L92" s="3">
-        <v>1.09041908981967</v>
-      </c>
-      <c r="M92" s="3">
+      <c r="J92" s="5">
+        <v>0.97288097063328605</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0.982604629891765</v>
+      </c>
+      <c r="L92" s="5">
+        <v>1.00084746904644</v>
+      </c>
+      <c r="M92" s="6">
         <f>GEOMEAN(J92:L92)</f>
-        <v>1.0856356279207826</v>
+        <v>0.98537635487645525</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="3">
-        <v>0.74053072017186805</v>
-      </c>
-      <c r="E93" s="3">
-        <v>0.72219549546717499</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0.70615808091749499</v>
-      </c>
-      <c r="G93" s="3">
+      <c r="D93" s="5">
+        <v>1.0451507931602599</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1.0279758124121201</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1.0372320440253</v>
+      </c>
+      <c r="G93" s="6">
         <f t="shared" ref="G93:G95" si="27">GEOMEAN(D93:F93)</f>
-        <v>0.72282516280975773</v>
+        <v>1.0367624483902724</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" t="s">
         <v>1</v>
       </c>
-      <c r="J93" s="3">
-        <v>0.70359485382977804</v>
-      </c>
-      <c r="K93" s="3">
-        <v>0.69056563719803599</v>
-      </c>
-      <c r="L93" s="3">
-        <v>0.67957356810326996</v>
-      </c>
-      <c r="M93" s="3">
+      <c r="J93" s="5">
+        <v>0.96296678128697899</v>
+      </c>
+      <c r="K93" s="5">
+        <v>0.96843283623280096</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0.98513557677845098</v>
+      </c>
+      <c r="M93" s="6">
         <f t="shared" ref="M93:M95" si="28">GEOMEAN(J93:L93)</f>
-        <v>0.69117501768655187</v>
+        <v>0.97213281929758166</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="3">
-        <v>0.57036380550819099</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0.54130891583257501</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0.51765729149725204</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="D94" s="5">
+        <v>1.0017777960616201</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.97887838632259205</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.97641334183462503</v>
+      </c>
+      <c r="G94" s="6">
         <f t="shared" si="27"/>
-        <v>0.5426833426209754</v>
+        <v>0.98562402708620322</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" t="s">
         <v>2</v>
       </c>
-      <c r="J94" s="3">
-        <v>0.54324493808687602</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0.52249486279311697</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0.50637668371688904</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="J94" s="5">
+        <v>0.92984678394890397</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.93132843093074302</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0.93514322049437903</v>
+      </c>
+      <c r="M94" s="6">
         <f t="shared" si="28"/>
-        <v>0.52382208446915268</v>
+        <v>0.93210347697875195</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A95" s="5"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="3">
-        <v>0.32277441367084497</v>
-      </c>
-      <c r="E95" s="3">
-        <v>0.30939734462212698</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0.285526695214739</v>
-      </c>
-      <c r="G95" s="3">
+      <c r="D95" s="5">
+        <v>0.88198603982708301</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0.86105929167496797</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.82212774401031197</v>
+      </c>
+      <c r="G95" s="6">
         <f t="shared" si="27"/>
-        <v>0.30550674322911137</v>
+        <v>0.85469538252886612</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" t="s">
         <v>3</v>
       </c>
-      <c r="J95" s="3">
-        <v>0.30569680907473801</v>
-      </c>
-      <c r="K95" s="3">
-        <v>0.30021744459632199</v>
-      </c>
-      <c r="L95" s="3">
-        <v>0.28122465689686399</v>
-      </c>
-      <c r="M95" s="3">
+      <c r="J95" s="5">
+        <v>0.827075809493519</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0.82325974799207602</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0.79848382804100504</v>
+      </c>
+      <c r="M95" s="6">
         <f t="shared" si="28"/>
-        <v>0.29552444361680585</v>
+        <v>0.81617403615375517</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="6">
         <f>GEOMEAN(D92:D95)</f>
-        <v>0.63231593832950816</v>
-      </c>
-      <c r="E96" s="3">
+        <v>0.99851874895397907</v>
+      </c>
+      <c r="E96" s="6">
         <f t="shared" ref="E96" si="29">GEOMEAN(E92:E95)</f>
-        <v>0.61418822288787245</v>
-      </c>
-      <c r="F96" s="3">
+        <v>0.98135950290347385</v>
+      </c>
+      <c r="F96" s="6">
         <f t="shared" ref="F96" si="30">GEOMEAN(F92:F95)</f>
-        <v>0.59487508715926607</v>
-      </c>
-      <c r="G96" s="3">
+        <v>0.97816553551942065</v>
+      </c>
+      <c r="G96" s="6">
         <f>GEOMEAN(G92:G95)</f>
-        <v>0.6136025158798577</v>
+        <v>0.98597424572440262</v>
       </c>
       <c r="I96" t="s">
         <v>10</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="6">
         <f>GEOMEAN(J92:J95)</f>
-        <v>0.59614613467565092</v>
-      </c>
-      <c r="K96" s="3">
+        <v>0.92131243235993487</v>
+      </c>
+      <c r="K96" s="6">
         <f t="shared" ref="K96" si="31">GEOMEAN(K92:K95)</f>
-        <v>0.58559183387474867</v>
-      </c>
-      <c r="L96" s="3">
+        <v>0.92421287405595309</v>
+      </c>
+      <c r="L96" s="6">
         <f t="shared" ref="L96" si="32">GEOMEAN(L92:L95)</f>
-        <v>0.56995327716495703</v>
-      </c>
-      <c r="M96" s="3">
+        <v>0.92630079807123622</v>
+      </c>
+      <c r="M96" s="6">
         <f>GEOMEAN(M92:M95)</f>
-        <v>0.58379763744520097</v>
+        <v>0.92393976996938454</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3617,7 +4771,7 @@
       <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
+      <c r="A98" s="7"/>
       <c r="D98" s="1" t="s">
         <v>4</v>
       </c>
@@ -3630,7 +4784,7 @@
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
+      <c r="A99" s="7"/>
       <c r="D99">
         <v>2</v>
       </c>
@@ -3651,25 +4805,25 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
       </c>
-      <c r="D100" s="3">
-        <v>1.1483084975428799</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1.15071681002482</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1.15268940233366</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="D100" s="5">
+        <v>1.0754990826239501</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1.0696169461887799</v>
+      </c>
+      <c r="F100" s="5">
+        <v>1.0978415740118399</v>
+      </c>
+      <c r="G100" s="6">
         <f>GEOMEAN(D100:F100)</f>
-        <v>1.150570175149195</v>
+        <v>1.0809177886274874</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>5</v>
@@ -3677,173 +4831,173 @@
       <c r="I100" t="s">
         <v>0</v>
       </c>
-      <c r="J100" s="3">
-        <v>1.0646025989271199</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1.0667513871617</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1.05775340685705</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="J100" s="5">
+        <v>0.97216645011148495</v>
+      </c>
+      <c r="K100" s="5">
+        <v>0.98183327214612603</v>
+      </c>
+      <c r="L100" s="5">
+        <v>0.99962454819340396</v>
+      </c>
+      <c r="M100" s="6">
         <f>GEOMEAN(J100:L100)</f>
-        <v>1.0630288643183978</v>
+        <v>0.9844759152184871</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
         <v>1</v>
       </c>
-      <c r="D101" s="3">
-        <v>0.71898975949835398</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0.69970604134046399</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0.66985395763800204</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="D101" s="5">
+        <v>1.0441779037863901</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1.0270914397288999</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1.03548333580303</v>
+      </c>
+      <c r="G101" s="6">
         <f t="shared" ref="G101:G103" si="33">GEOMEAN(D101:F101)</f>
-        <v>0.69588822088309232</v>
+        <v>1.0355607327788066</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" t="s">
         <v>1</v>
       </c>
-      <c r="J101" s="3">
-        <v>0.686825964516105</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0.67242794915260196</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0.65052237802872104</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="J101" s="5">
+        <v>0.962161154975402</v>
+      </c>
+      <c r="K101" s="5">
+        <v>0.96761360083148695</v>
+      </c>
+      <c r="L101" s="5">
+        <v>0.98385507202834899</v>
+      </c>
+      <c r="M101" s="6">
         <f t="shared" ref="M101:M103" si="34">GEOMEAN(J101:L101)</f>
-        <v>0.66975849999861881</v>
+        <v>0.97116637539021322</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A102" s="5"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="3">
-        <v>0.55024677046630199</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0.52239090122172405</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0.48724926246503503</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="D102" s="5">
+        <v>1.00052209696136</v>
+      </c>
+      <c r="E102" s="5">
+        <v>0.97777269061129002</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0.97478187178682996</v>
+      </c>
+      <c r="G102" s="6">
         <f t="shared" si="33"/>
-        <v>0.51931966174396871</v>
+        <v>0.98429212525407961</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" t="s">
         <v>2</v>
       </c>
-      <c r="J102" s="3">
-        <v>0.52747922758155796</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0.50663651342042904</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0.48023431099387498</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="J102" s="5">
+        <v>0.92887265783598005</v>
+      </c>
+      <c r="K102" s="5">
+        <v>0.93040691070734705</v>
+      </c>
+      <c r="L102" s="5">
+        <v>0.93373391810346795</v>
+      </c>
+      <c r="M102" s="6">
         <f t="shared" si="34"/>
-        <v>0.50441153684034545</v>
+        <v>0.93100228572308852</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
         <v>3</v>
       </c>
-      <c r="D103" s="3">
-        <v>0.30721030203799099</v>
-      </c>
-      <c r="E103" s="3">
-        <v>0.29481982828752501</v>
-      </c>
-      <c r="F103" s="3">
-        <v>0.26487796653643703</v>
-      </c>
-      <c r="G103" s="3">
+      <c r="D103" s="5">
+        <v>0.88125719226118404</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.86051290220214205</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.82135844917303502</v>
+      </c>
+      <c r="G103" s="6">
         <f t="shared" si="33"/>
-        <v>0.28841162796790287</v>
+        <v>0.8540125705196423</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="3">
-        <v>0.29220538497421999</v>
-      </c>
-      <c r="K103" s="3">
-        <v>0.28717940936893399</v>
-      </c>
-      <c r="L103" s="3">
-        <v>0.262075279399335</v>
-      </c>
-      <c r="M103" s="3">
+      <c r="J103" s="5">
+        <v>0.82625908919458102</v>
+      </c>
+      <c r="K103" s="5">
+        <v>0.82248321461833995</v>
+      </c>
+      <c r="L103" s="5">
+        <v>0.79729472912294996</v>
+      </c>
+      <c r="M103" s="6">
         <f t="shared" si="34"/>
-        <v>0.28017057635661013</v>
+        <v>0.81524359511845046</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
         <v>10</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="6">
         <f>GEOMEAN(D100:D103)</f>
-        <v>0.61121448829191005</v>
-      </c>
-      <c r="E104" s="3">
+        <v>0.997535764943415</v>
+      </c>
+      <c r="E104" s="6">
         <f t="shared" ref="E104" si="35">GEOMEAN(E100:E103)</f>
-        <v>0.59341578367861092</v>
-      </c>
-      <c r="F104" s="3">
+        <v>0.98052386518060775</v>
+      </c>
+      <c r="F104" s="6">
         <f t="shared" ref="F104" si="36">GEOMEAN(F100:F103)</f>
-        <v>0.56185255871664452</v>
-      </c>
-      <c r="G104" s="3">
+        <v>0.97674397282502445</v>
+      </c>
+      <c r="G104" s="6">
         <f>GEOMEAN(G100:G103)</f>
-        <v>0.58847095486613654</v>
+        <v>0.98489317519025743</v>
       </c>
       <c r="I104" t="s">
         <v>10</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="6">
         <f>GEOMEAN(J100:J103)</f>
-        <v>0.57940461606747506</v>
-      </c>
-      <c r="K104" s="3">
+        <v>0.92048182860950756</v>
+      </c>
+      <c r="K104" s="6">
         <f t="shared" ref="K104" si="37">GEOMEAN(K100:K103)</f>
-        <v>0.56838117988972092</v>
-      </c>
-      <c r="L104" s="3">
+        <v>0.92338947516909353</v>
+      </c>
+      <c r="L104" s="6">
         <f t="shared" ref="L104" si="38">GEOMEAN(L100:L103)</f>
-        <v>0.54247718680410073</v>
-      </c>
-      <c r="M104" s="3">
+        <v>0.92502297041002923</v>
+      </c>
+      <c r="M104" s="6">
         <f>GEOMEAN(M100:M103)</f>
-        <v>0.56320656231365462</v>
+        <v>0.9229628464177404</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3862,7 +5016,7 @@
       <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
+      <c r="A106" s="7"/>
       <c r="D106" s="1" t="s">
         <v>4</v>
       </c>
@@ -3875,7 +5029,7 @@
       <c r="L106" s="1"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A107" s="5"/>
+      <c r="A107" s="7"/>
       <c r="D107">
         <v>2</v>
       </c>
@@ -3896,25 +5050,25 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
       </c>
-      <c r="D108" s="3">
-        <v>1.1658707796035801</v>
-      </c>
-      <c r="E108" s="3">
-        <v>1.1526833414639199</v>
-      </c>
-      <c r="F108" s="3">
-        <v>1.1458018418207201</v>
-      </c>
-      <c r="G108" s="3">
+      <c r="D108" s="5">
+        <v>1.06101277015733</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1.0525279029727399</v>
+      </c>
+      <c r="F108" s="5">
+        <v>1.0753638353138799</v>
+      </c>
+      <c r="G108" s="6">
         <f>GEOMEAN(D108:F108)</f>
-        <v>1.1547553512569322</v>
+        <v>1.0629264608650302</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>5</v>
@@ -3922,169 +5076,169 @@
       <c r="I108" t="s">
         <v>0</v>
       </c>
-      <c r="J108" s="3">
-        <v>1.07789251322462</v>
-      </c>
-      <c r="K108" s="3">
-        <v>1.0688210207511299</v>
-      </c>
-      <c r="L108" s="3">
-        <v>1.0537976076459901</v>
-      </c>
-      <c r="M108" s="3">
+      <c r="J108" s="5">
+        <v>0.96316656783475196</v>
+      </c>
+      <c r="K108" s="5">
+        <v>0.97023954629077303</v>
+      </c>
+      <c r="L108" s="5">
+        <v>0.98430890402216897</v>
+      </c>
+      <c r="M108" s="6">
         <f>GEOMEAN(J108:L108)</f>
-        <v>1.0667906896855408</v>
+        <v>0.97253206339577392</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="1"/>
       <c r="C109" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="3">
-        <v>0.73335454369460795</v>
-      </c>
-      <c r="E109" s="3">
-        <v>0.69978771838482701</v>
-      </c>
-      <c r="F109" s="3">
-        <v>0.66280330099245799</v>
-      </c>
-      <c r="G109" s="3">
+      <c r="D109" s="5">
+        <v>1.02910419882732</v>
+      </c>
+      <c r="E109" s="5">
+        <v>1.00933956261736</v>
+      </c>
+      <c r="F109" s="5">
+        <v>1.0124565965171499</v>
+      </c>
+      <c r="G109" s="6">
         <f t="shared" ref="G109:G111" si="39">GEOMEAN(D109:F109)</f>
-        <v>0.69805287799431337</v>
+        <v>1.016929908321407</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" t="s">
         <v>1</v>
       </c>
-      <c r="J109" s="3">
-        <v>0.69834977126363895</v>
-      </c>
-      <c r="K109" s="3">
-        <v>0.67219954501888002</v>
-      </c>
-      <c r="L109" s="3">
-        <v>0.64447297005455995</v>
-      </c>
-      <c r="M109" s="3">
+      <c r="J109" s="5">
+        <v>0.95220722020895399</v>
+      </c>
+      <c r="K109" s="5">
+        <v>0.955156527142343</v>
+      </c>
+      <c r="L109" s="5">
+        <v>0.96775834917961401</v>
+      </c>
+      <c r="M109" s="6">
         <f t="shared" ref="M109:M111" si="40">GEOMEAN(J109:L109)</f>
-        <v>0.67131338359822068</v>
+        <v>0.95835037020864144</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A110" s="5"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="1"/>
       <c r="C110" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="3">
-        <v>0.56433872730627299</v>
-      </c>
-      <c r="E110" s="3">
-        <v>0.523126041102842</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0.48163882668570601</v>
-      </c>
-      <c r="G110" s="3">
+      <c r="D110" s="5">
+        <v>0.98606142934391094</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.96102982909293999</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.95415196438153005</v>
+      </c>
+      <c r="G110" s="6">
         <f t="shared" si="39"/>
-        <v>0.52194237964326495</v>
+        <v>0.96698438841469381</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" t="s">
         <v>2</v>
       </c>
-      <c r="J110" s="3">
-        <v>0.54046193959107702</v>
-      </c>
-      <c r="K110" s="3">
-        <v>0.50752021377729395</v>
-      </c>
-      <c r="L110" s="3">
-        <v>0.47520281612621501</v>
-      </c>
-      <c r="M110" s="3">
+      <c r="J110" s="5">
+        <v>0.91834922762437998</v>
+      </c>
+      <c r="K110" s="5">
+        <v>0.91741222105125397</v>
+      </c>
+      <c r="L110" s="5">
+        <v>0.91704462108476004</v>
+      </c>
+      <c r="M110" s="6">
         <f t="shared" si="40"/>
-        <v>0.50702863637769602</v>
+        <v>0.91760185890038914</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="1"/>
       <c r="C111" t="s">
         <v>3</v>
       </c>
-      <c r="D111" s="3">
-        <v>0.317247642064163</v>
-      </c>
-      <c r="E111" s="3">
-        <v>0.29628267610439502</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0.26370256265518</v>
-      </c>
-      <c r="G111" s="3">
+      <c r="D111" s="5">
+        <v>0.86829628238706402</v>
+      </c>
+      <c r="E111" s="5">
+        <v>0.84566466799405304</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0.80230781491360303</v>
+      </c>
+      <c r="G111" s="6">
         <f t="shared" si="39"/>
-        <v>0.29156787430990244</v>
+        <v>0.83830563101732214</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" t="s">
         <v>3</v>
       </c>
-      <c r="J111" s="3">
-        <v>0.30239113716727301</v>
-      </c>
-      <c r="K111" s="3">
-        <v>0.28895882421262098</v>
-      </c>
-      <c r="L111" s="3">
-        <v>0.25969438468103301</v>
-      </c>
-      <c r="M111" s="3">
+      <c r="J111" s="5">
+        <v>0.81529131339663097</v>
+      </c>
+      <c r="K111" s="5">
+        <v>0.80887655114342905</v>
+      </c>
+      <c r="L111" s="5">
+        <v>0.78050793288301701</v>
+      </c>
+      <c r="M111" s="6">
         <f t="shared" si="40"/>
-        <v>0.28311042360428784</v>
+        <v>0.80141498880480422</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="6">
         <f>GEOMEAN(D108:D111)</f>
-        <v>0.62549762570825618</v>
-      </c>
-      <c r="E112" s="3">
+        <v>0.98330436834249546</v>
+      </c>
+      <c r="E112" s="6">
         <f t="shared" ref="E112:F112" si="41">GEOMEAN(E108:E111)</f>
-        <v>0.59463057035357758</v>
-      </c>
-      <c r="F112" s="3">
+        <v>0.96394330667747397</v>
+      </c>
+      <c r="F112" s="6">
         <f t="shared" si="41"/>
-        <v>0.55729160982277637</v>
-      </c>
-      <c r="G112" s="3">
+        <v>0.95548220502328285</v>
+      </c>
+      <c r="G112" s="6">
         <f>GEOMEAN(G108:G111)</f>
-        <v>0.59181386330201702</v>
+        <v>0.96750678921380706</v>
       </c>
       <c r="I112" t="s">
         <v>10</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="6">
         <f>GEOMEAN(J108:J111)</f>
-        <v>0.59223716315665076</v>
-      </c>
-      <c r="K112" s="3">
+        <v>0.91030805880257748</v>
+      </c>
+      <c r="K112" s="6">
         <f t="shared" ref="K112:L112" si="42">GEOMEAN(K108:K111)</f>
-        <v>0.56973529744287099</v>
-      </c>
-      <c r="L112" s="3">
+        <v>0.91064702201791647</v>
+      </c>
+      <c r="L112" s="6">
         <f t="shared" si="42"/>
-        <v>0.53805400706090678</v>
-      </c>
-      <c r="M112" s="3">
+        <v>0.90869163984963319</v>
+      </c>
+      <c r="M112" s="6">
         <f>GEOMEAN(M108:M111)</f>
-        <v>0.56623696511625643</v>
+        <v>0.90988184006259465</v>
       </c>
     </row>
   </sheetData>
@@ -4106,5 +5260,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Accuracy rMAE and rRMSE (Cross-Temporal).xlsx
+++ b/Accuracy rMAE and rRMSE (Cross-Temporal).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e00c848d2da39f20/Documents/3. Masters/Research/WindPowerForecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="821" documentId="8_{7CAE70F8-1326-4B7D-8A8A-809CD0BBBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D50A00-EE70-47F9-A1D9-A631AADDDC34}"/>
+  <xr:revisionPtr revIDLastSave="962" documentId="8_{7CAE70F8-1326-4B7D-8A8A-809CD0BBBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{656B8A50-0B40-4A7B-AD00-1C8378F46711}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{4F6B620E-8A72-45CF-9D17-FD2A4C076D11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F6B620E-8A72-45CF-9D17-FD2A4C076D11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -331,25 +331,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0309700880227557</c:v>
+                  <c:v>1.0263911707666091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9743731209181723</c:v>
+                  <c:v>0.96870773920421049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0046752131152323</c:v>
+                  <c:v>1.0002535773173562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.970028891481169</c:v>
+                  <c:v>0.9651647971412517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98558975267380722</c:v>
+                  <c:v>0.98073553800883173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98517606387003587</c:v>
+                  <c:v>0.98034319454438845</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96877109281924612</c:v>
+                  <c:v>0.96368037814983132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,25 +467,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0364136160503963</c:v>
+                  <c:v>1.032759330692262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96832426474118916</c:v>
+                  <c:v>0.96374701608838109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0002257610831904</c:v>
+                  <c:v>0.99606713100926092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96963456495005651</c:v>
+                  <c:v>0.96834813826462085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98597424572440262</c:v>
+                  <c:v>0.98401428738700347</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98489317519025743</c:v>
+                  <c:v>0.98300758369751839</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96750678921380706</c:v>
+                  <c:v>0.96551895871558169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,7 +1644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1654,27 +1654,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C5127F-CD46-4E4E-96B7-010FB4E47685}">
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1706,7 +1706,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -1734,7 +1734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1.0592846977557699</v>
+        <v>1.0407973260155801</v>
       </c>
       <c r="E4" s="5">
         <v>1.02963208908215</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="G4" s="6">
         <f>GEOMEAN(D4:F4)</f>
-        <v>1.0360164776196741</v>
+        <v>1.0299539777702997</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>
@@ -1775,14 +1775,14 @@
         <v>0.96130476414365063</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>1.0624669731016201</v>
+        <v>1.0476333876758299</v>
       </c>
       <c r="E5" s="5">
         <v>1.0345983790967499</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" ref="G5:G7" si="0">GEOMEAN(D5:F5)</f>
-        <v>1.0397376919401935</v>
+        <v>1.0348762464422097</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
@@ -1812,14 +1812,14 @@
         <v>0.97465296092529352</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5">
-        <v>1.0586499521530099</v>
+        <v>1.04643379828476</v>
       </c>
       <c r="E6" s="5">
         <v>1.03327618887192</v>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>1.0336363912819944</v>
+        <v>1.0296451618858375</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
@@ -1849,14 +1849,14 @@
         <v>0.96802136850832932</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>1.04108496048175</v>
+        <v>1.03057960659685</v>
       </c>
       <c r="E7" s="5">
         <v>1.01789000019496</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>1.0146727995991616</v>
+        <v>1.0112483101490426</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="2" t="s">
@@ -1886,13 +1886,13 @@
         <v>0.95402569622407141</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="6">
         <f>GEOMEAN(D4:D7)</f>
-        <v>1.0553382353283558</v>
+        <v>1.0413391594003274</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ref="E8:F8" si="2">GEOMEAN(E4:E7)</f>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="G8" s="6">
         <f>GEOMEAN(G4:G7)</f>
-        <v>1.0309700880227557</v>
+        <v>1.0263911707666091</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>16</v>
@@ -1926,7 +1926,7 @@
         <v>0.96447067964771771</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -1958,7 +1958,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -1986,7 +1986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <v>1.0592846977557699</v>
+        <v>1.0407973260155801</v>
       </c>
       <c r="E12" s="5">
         <v>1.04685597001332</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="G12" s="6">
         <f>GEOMEAN(D12:F12)</f>
-        <v>1.0642110732152528</v>
+        <v>1.0579835859016404</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
@@ -2027,14 +2027,14 @@
         <v>0.96975323318332907</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>1.0329272025022</v>
+        <v>1.0096340779125801</v>
       </c>
       <c r="E13" s="5">
         <v>1.0069266751192301</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" ref="G13:G15" si="5">GEOMEAN(D13:F13)</f>
-        <v>1.0217460279253281</v>
+        <v>1.0140072341297652</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
@@ -2064,14 +2064,14 @@
         <v>0.95800315158885951</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="5">
-        <v>0.99130551577070503</v>
+        <v>0.97271823593722395</v>
       </c>
       <c r="E14" s="5">
         <v>0.96253558735011302</v>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="5"/>
-        <v>0.97408991562268454</v>
+        <v>0.96796330190111712</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
@@ -2101,14 +2101,14 @@
         <v>0.91814277752636153</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="5">
-        <v>0.87885102312768504</v>
+        <v>0.86955621894563395</v>
       </c>
       <c r="E15" s="5">
         <v>0.851931423161568</v>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="5"/>
-        <v>0.85100360759029603</v>
+        <v>0.84799287274352797</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
@@ -2138,13 +2138,13 @@
         <v>0.80176665636684896</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="6">
         <f>GEOMEAN(D12:D15)</f>
-        <v>0.98810091098282482</v>
+        <v>0.97096533003256624</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ref="E16:F16" si="7">GEOMEAN(E12:E15)</f>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="G16" s="6">
         <f>GEOMEAN(G12:G15)</f>
-        <v>0.9743731209181723</v>
+        <v>0.96870773920421049</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>16</v>
@@ -2178,7 +2178,7 @@
         <v>0.90938250910621565</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="D18" s="1" t="s">
         <v>4</v>
@@ -2210,7 +2210,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="D19" s="2">
         <v>2</v>
@@ -2237,7 +2237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="5">
-        <v>1.10621249981029</v>
+        <v>1.09147654328549</v>
       </c>
       <c r="E20" s="5">
         <v>1.0895194667492001</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="G20" s="6">
         <f>GEOMEAN(D20:F20)</f>
-        <v>1.0981766034929987</v>
+        <v>1.0932784860472053</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
@@ -2278,14 +2278,14 @@
         <v>0.98955084165079044</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>1.0793478595002901</v>
+        <v>1.0607662171155801</v>
       </c>
       <c r="E21" s="5">
         <v>1.0486283244652299</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G21" s="6">
         <f>GEOMEAN(D21:F21)</f>
-        <v>1.0552473425614208</v>
+        <v>1.0491566771412368</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="2" t="s">
@@ -2315,14 +2315,14 @@
         <v>0.97939655379358781</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="5">
-        <v>1.0365871197090599</v>
+        <v>1.0211354838968201</v>
       </c>
       <c r="E22" s="5">
         <v>1.0020896936999499</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="G22" s="6">
         <f>GEOMEAN(D22:F22)</f>
-        <v>1.0052487515612187</v>
+        <v>1.0002288932192394</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="2" t="s">
@@ -2352,14 +2352,14 @@
         <v>0.94051626231916619</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="5">
-        <v>0.91857241905808296</v>
+        <v>0.91204204096250496</v>
       </c>
       <c r="E23" s="5">
         <v>0.88266058360911803</v>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="G23" s="6">
         <f>GEOMEAN(D23:F23)</f>
-        <v>0.87458646963348186</v>
+        <v>0.8725089819671159</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="2" t="s">
@@ -2389,13 +2389,13 @@
         <v>0.8250889305429836</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="6">
         <f>GEOMEAN(D20:D23)</f>
-        <v>1.0325944854292552</v>
+        <v>1.0190208688263775</v>
       </c>
       <c r="E24" s="6">
         <f>GEOMEAN(E20:E23)</f>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="G24" s="6">
         <f>GEOMEAN(G20:G23)</f>
-        <v>1.0046752131152323</v>
+        <v>1.0002535773173562</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>16</v>
@@ -2429,7 +2429,7 @@
         <v>0.93124925535593683</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -2461,7 +2461,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="D27" s="2">
         <v>2</v>
@@ -2488,7 +2488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>1.0568698589366801</v>
+        <v>1.0407907558492699</v>
       </c>
       <c r="E28" s="5">
         <v>1.0495431686560599</v>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G28" s="6">
         <f>GEOMEAN(D28:F28)</f>
-        <v>1.0628476562626996</v>
+        <v>1.0574300722696557</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>5</v>
@@ -2529,14 +2529,14 @@
         <v>0.97019877667425913</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="5">
-        <v>1.0284998051333101</v>
+        <v>1.0076701024091199</v>
       </c>
       <c r="E29" s="5">
         <v>1.00767348102848</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="G29" s="6">
         <f>GEOMEAN(D29:F29)</f>
-        <v>1.0191767555829709</v>
+        <v>1.01224948220841</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="2" t="s">
@@ -2566,14 +2566,14 @@
         <v>0.95842214285656413</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="5">
-        <v>0.98519743178132801</v>
+        <v>0.96931667960613599</v>
       </c>
       <c r="E30" s="5">
         <v>0.96227009682337705</v>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="G30" s="6">
         <f>GEOMEAN(D30:F30)</f>
-        <v>0.97019054403884242</v>
+        <v>0.96494933042099096</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="2" t="s">
@@ -2613,14 +2613,14 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="5">
-        <v>0.86947959518553597</v>
+        <v>0.86230827052423598</v>
       </c>
       <c r="E31" s="5">
         <v>0.84643659904010304</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="G31" s="6">
         <f>GEOMEAN(D31:F31)</f>
-        <v>0.84248293243628702</v>
+        <v>0.84016031495234123</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="2" t="s">
@@ -2657,13 +2657,13 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D32" s="6">
         <f>GEOMEAN(D28:D31)</f>
-        <v>0.98231799045125301</v>
+        <v>0.96761481516703773</v>
       </c>
       <c r="E32" s="6">
         <f>GEOMEAN(E28:E31)</f>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G32" s="6">
         <f>GEOMEAN(G28:G31)</f>
-        <v>0.970028891481169</v>
+        <v>0.9651647971412517</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>16</v>
@@ -2707,7 +2707,7 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="D34" s="1" t="s">
         <v>4</v>
@@ -2763,7 +2763,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="D35" s="2">
         <v>2</v>
@@ -2802,7 +2802,7 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>5</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="5">
-        <v>1.0695312965378001</v>
+        <v>1.0535659467793399</v>
       </c>
       <c r="E36" s="5">
         <v>1.06421079241573</v>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G36" s="6">
         <f>GEOMEAN(D36:F36)</f>
-        <v>1.0791840130842303</v>
+        <v>1.0737872567829092</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>5</v>
@@ -2855,14 +2855,14 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="5">
-        <v>1.04183857347741</v>
+        <v>1.0212884963159301</v>
       </c>
       <c r="E37" s="5">
         <v>1.02280236183387</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="G37" s="6">
         <f>GEOMEAN(D37:F37)</f>
-        <v>1.0359308186856155</v>
+        <v>1.0290743556900868</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="2" t="s">
@@ -2902,14 +2902,14 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="5">
-        <v>0.99828464842728104</v>
+        <v>0.98221107696883803</v>
       </c>
       <c r="E38" s="5">
         <v>0.97664072344827901</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G38" s="6">
         <f>GEOMEAN(D38:F38)</f>
-        <v>0.98589730867581815</v>
+        <v>0.98057727923205196</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="2" t="s">
@@ -2939,14 +2939,14 @@
         <v>0.92893765301382958</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="5">
-        <v>0.88087938972348001</v>
+        <v>0.87381315481220201</v>
       </c>
       <c r="E39" s="5">
         <v>0.85863387401355895</v>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="G39" s="6">
         <f>GEOMEAN(D39:F39)</f>
-        <v>0.85610450039684693</v>
+        <v>0.85380918663247374</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="2" t="s">
@@ -2976,13 +2976,13 @@
         <v>0.81305402010375227</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="6">
         <f>GEOMEAN(D36:D39)</f>
-        <v>0.99492694534699588</v>
+        <v>0.98029862344938146</v>
       </c>
       <c r="E40" s="6">
         <f>GEOMEAN(E36:E39)</f>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="G40" s="6">
         <f>GEOMEAN(G36:G39)</f>
-        <v>0.98558975267380722</v>
+        <v>0.98073553800883173</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>16</v>
@@ -3016,7 +3016,7 @@
         <v>0.91987002912892779</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>14</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="D42" s="1" t="s">
         <v>4</v>
@@ -3048,7 +3048,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
@@ -3076,7 +3076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>5</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="5">
-        <v>1.0693573624401</v>
+        <v>1.05345859447816</v>
       </c>
       <c r="E44" s="5">
         <v>1.06422953169465</v>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="G44" s="6">
         <f>GEOMEAN(D44:F44)</f>
-        <v>1.0787869178972675</v>
+        <v>1.073413880306447</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>5</v>
@@ -3117,14 +3117,14 @@
         <v>0.97899168618281585</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="5">
-        <v>1.0416464425257499</v>
+        <v>1.0211204549644699</v>
       </c>
       <c r="E45" s="5">
         <v>1.0228362575132199</v>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G45" s="6">
         <f>GEOMEAN(D45:F45)</f>
-        <v>1.03549996361417</v>
+        <v>1.0286531688765701</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="2" t="s">
@@ -3154,14 +3154,14 @@
         <v>0.96800866696296062</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="5">
-        <v>0.99810388206813605</v>
+        <v>0.98208786760977596</v>
       </c>
       <c r="E46" s="5">
         <v>0.97665089299188501</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G46" s="6">
         <f>GEOMEAN(D46:F46)</f>
-        <v>0.98548249686559219</v>
+        <v>0.98018288628635031</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="2" t="s">
@@ -3191,14 +3191,14 @@
         <v>0.92871969515425801</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="5">
-        <v>0.88063182281546504</v>
+        <v>0.87365500225397696</v>
       </c>
       <c r="E47" s="5">
         <v>0.85869959027607401</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="G47" s="6">
         <f>GEOMEAN(D47:F47)</f>
-        <v>0.85569842331172608</v>
+        <v>0.85343266747888336</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="2" t="s">
@@ -3228,13 +3228,13 @@
         <v>0.81281194231904363</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="6">
         <f>GEOMEAN(D44:D47)</f>
-        <v>0.99472567954237689</v>
+        <v>0.98015822830137245</v>
       </c>
       <c r="E48" s="6">
         <f>GEOMEAN(E44:E47)</f>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G48" s="6">
         <f>GEOMEAN(G44:G47)</f>
-        <v>0.98517606387003587</v>
+        <v>0.98034319454438845</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>16</v>
@@ -3268,7 +3268,7 @@
         <v>0.91967259489685571</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -3300,7 +3300,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
@@ -3328,7 +3328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>5</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="5">
-        <v>1.0558295811367799</v>
+        <v>1.03910025720013</v>
       </c>
       <c r="E52" s="5">
         <v>1.04760196593826</v>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="G52" s="6">
         <f>GEOMEAN(D52:F52)</f>
-        <v>1.0613832484883703</v>
+        <v>1.0557476043646254</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>5</v>
@@ -3369,14 +3369,14 @@
         <v>0.96965273333460478</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="5">
-        <v>1.0274854429251301</v>
+        <v>1.00597506091671</v>
       </c>
       <c r="E53" s="5">
         <v>1.00597714482042</v>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="G53" s="6">
         <f>GEOMEAN(D53:F53)</f>
-        <v>1.0178557720628121</v>
+        <v>1.010702692499865</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="2" t="s">
@@ -3406,14 +3406,14 @@
         <v>0.95784504360328293</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="5">
-        <v>0.98420854538475899</v>
+        <v>0.96762461749252704</v>
       </c>
       <c r="E54" s="5">
         <v>0.96049661441988599</v>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G54" s="6">
         <f>GEOMEAN(D54:F54)</f>
-        <v>0.96892117575757353</v>
+        <v>0.96344820797946396</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="2" t="s">
@@ -3443,14 +3443,14 @@
         <v>0.91762253685476458</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="5">
-        <v>0.86869334115585195</v>
+        <v>0.86082265813353398</v>
       </c>
       <c r="E55" s="5">
         <v>0.844981891503088</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G55" s="6">
         <f>GEOMEAN(D55:F55)</f>
-        <v>0.84146831077644135</v>
+        <v>0.83891925869541362</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="2" t="s">
@@ -3480,13 +3480,13 @@
         <v>0.80124969384178968</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="6">
         <f>GEOMEAN(D52:D55)</f>
-        <v>0.98136548987774697</v>
+        <v>0.96597595535253256</v>
       </c>
       <c r="E56" s="6">
         <f>GEOMEAN(E52:E55)</f>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="G56" s="6">
         <f>GEOMEAN(G52:G55)</f>
-        <v>0.96877109281924612</v>
+        <v>0.96368037814983132</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>16</v>
@@ -3520,7 +3520,7 @@
         <v>0.90904599454383073</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>9</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="D58" s="1" t="s">
         <v>4</v>
@@ -3552,7 +3552,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="D59">
         <v>2</v>
@@ -3579,7 +3579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>5</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="5">
-        <v>1.0692381859906299</v>
+        <v>1.0562373267640499</v>
       </c>
       <c r="E60" s="5">
         <v>1.0373160385958999</v>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="G60" s="6">
         <f>GEOMEAN(D60:F60)</f>
-        <v>1.0430936303680722</v>
+        <v>1.0388487230751855</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>5</v>
@@ -3620,14 +3620,14 @@
         <v>0.96625461618062802</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="1"/>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="5">
-        <v>1.0711509833739401</v>
+        <v>1.0559532854573701</v>
       </c>
       <c r="E61" s="5">
         <v>1.0357229311486</v>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="G61" s="6">
         <f>GEOMEAN(D61:F61)</f>
-        <v>1.0436076413229503</v>
+        <v>1.0386484771048679</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" t="s">
@@ -3657,14 +3657,14 @@
         <v>0.97975382961618729</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="1"/>
       <c r="C62" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="5">
-        <v>1.0665521648848599</v>
+        <v>1.054412563718</v>
       </c>
       <c r="E62" s="5">
         <v>1.0356716865346001</v>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="G62" s="6">
         <f>GEOMEAN(D62:F62)</f>
-        <v>1.0409760439932174</v>
+        <v>1.0370114669094932</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" t="s">
@@ -3694,14 +3694,14 @@
         <v>0.97731425279212136</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="1"/>
       <c r="C63" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="5">
-        <v>1.0428642074413801</v>
+        <v>1.0382703098046899</v>
       </c>
       <c r="E63" s="5">
         <v>1.0265770752832999</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G63" s="6">
         <f>GEOMEAN(D63:F63)</f>
-        <v>1.0181954709349592</v>
+        <v>1.0166981935901345</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" t="s">
@@ -3731,13 +3731,13 @@
         <v>0.96484718888082177</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="6">
         <f>GEOMEAN(D60:D63)</f>
-        <v>1.062389460846165</v>
+        <v>1.0511914165836065</v>
       </c>
       <c r="E64" s="6">
         <f>GEOMEAN(E60:E63)</f>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="G64" s="6">
         <f>GEOMEAN(G60:G63)</f>
-        <v>1.0364136160503963</v>
+        <v>1.032759330692262</v>
       </c>
       <c r="I64" t="s">
         <v>10</v>
@@ -3771,7 +3771,7 @@
         <v>0.97202028869485435</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>17</v>
       </c>
@@ -3790,7 +3790,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="D66" s="1" t="s">
         <v>4</v>
@@ -3803,7 +3803,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="D67">
         <v>2</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>5</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="5">
-        <v>1.0692381859906299</v>
+        <v>1.0562373267640499</v>
       </c>
       <c r="E68" s="5">
         <v>1.0446037868689699</v>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="G68" s="6">
         <f>GEOMEAN(D68:F68)</f>
-        <v>1.0594413852308702</v>
+        <v>1.0551299501577163</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>5</v>
@@ -3865,14 +3865,14 @@
         <v>0.96588391302539334</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="1"/>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" s="5">
-        <v>1.0413364521395601</v>
+        <v>1.02259103051849</v>
       </c>
       <c r="E69" s="5">
         <v>1.0038154628093801</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="G69" s="6">
         <f>GEOMEAN(D69:F69)</f>
-        <v>1.0165988545193341</v>
+        <v>1.0104618436454813</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" t="s">
@@ -3902,14 +3902,14 @@
         <v>0.95290750465918928</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="1"/>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="5">
-        <v>0.99860616691736603</v>
+        <v>0.98218344736982199</v>
       </c>
       <c r="E70" s="5">
         <v>0.95778858773632602</v>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="G70" s="6">
         <f>GEOMEAN(D70:F70)</f>
-        <v>0.96730119937385017</v>
+        <v>0.96196923270802781</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" t="s">
@@ -3939,14 +3939,14 @@
         <v>0.91309201260405071</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="1"/>
       <c r="C71" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="5">
-        <v>0.886066834225825</v>
+        <v>0.87735819198776099</v>
       </c>
       <c r="E71" s="5">
         <v>0.84692846462184801</v>
@@ -3956,7 +3956,7 @@
       </c>
       <c r="G71" s="6">
         <f>GEOMEAN(D71:F71)</f>
-        <v>0.84390776479132046</v>
+        <v>0.84113389560663077</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" t="s">
@@ -3976,13 +3976,13 @@
         <v>0.79569086493281449</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="6">
         <f>GEOMEAN(D68:D71)</f>
-        <v>0.99628034874954363</v>
+        <v>0.98221883773795138</v>
       </c>
       <c r="E72" s="6">
         <f>GEOMEAN(E68:E71)</f>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="G72" s="6">
         <f>GEOMEAN(G68:G71)</f>
-        <v>0.96832426474118916</v>
+        <v>0.96374701608838109</v>
       </c>
       <c r="I72" t="s">
         <v>10</v>
@@ -4016,7 +4016,7 @@
         <v>0.90429191714903989</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>19</v>
       </c>
@@ -4035,7 +4035,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="D74" s="1" t="s">
         <v>4</v>
@@ -4048,7 +4048,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="D75">
         <v>2</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="1" t="s">
         <v>5</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="5">
-        <v>1.10771809530819</v>
+        <v>1.0952905556632699</v>
       </c>
       <c r="E76" s="5">
         <v>1.08822058173877</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="G76" s="6">
         <f>GEOMEAN(D76:F76)</f>
-        <v>1.0966462232639778</v>
+        <v>1.0925296821763684</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>5</v>
@@ -4110,14 +4110,14 @@
         <v>0.99369379493011167</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="1"/>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="5">
-        <v>1.0799365728096699</v>
+        <v>1.0621260212758299</v>
       </c>
       <c r="E77" s="5">
         <v>1.04475003630573</v>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" ref="G77:G79" si="15">GEOMEAN(D77:F77)</f>
-        <v>1.0516127773769228</v>
+        <v>1.0457995585608579</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" t="s">
@@ -4147,14 +4147,14 @@
         <v>0.98058397684835275</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="1"/>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" s="5">
-        <v>1.03534673614966</v>
+        <v>1.0201085030949999</v>
       </c>
       <c r="E78" s="5">
         <v>0.99576109896209397</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="G78" s="6">
         <f t="shared" si="15"/>
-        <v>0.99961441280841123</v>
+        <v>0.99468604633308577</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" t="s">
@@ -4184,14 +4184,14 @@
         <v>0.94071456668230491</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="1"/>
       <c r="C79" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="5">
-        <v>0.91573492934719702</v>
+        <v>0.90911373637535098</v>
       </c>
       <c r="E79" s="5">
         <v>0.87829514469105996</v>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="G79" s="6">
         <f t="shared" si="15"/>
-        <v>0.86823488612985866</v>
+        <v>0.86613724052851637</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" t="s">
@@ -4221,13 +4221,13 @@
         <v>0.8244263868091587</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="6">
         <f>GEOMEAN(D76:D79)</f>
-        <v>1.0319787973620453</v>
+        <v>1.0191602925787537</v>
       </c>
       <c r="E80" s="6">
         <f t="shared" ref="E80" si="17">GEOMEAN(E76:E79)</f>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="G80" s="6">
         <f>GEOMEAN(G76:G79)</f>
-        <v>1.0002257610831904</v>
+        <v>0.99606713100926092</v>
       </c>
       <c r="I80" t="s">
         <v>10</v>
@@ -4261,7 +4261,7 @@
         <v>0.93236675719584372</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>20</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="D82" s="1" t="s">
         <v>4</v>
@@ -4293,7 +4293,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="D83">
         <v>2</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="1" t="s">
         <v>5</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="5">
-        <v>1.0608965694160899</v>
+        <v>1.0573160138432001</v>
       </c>
       <c r="E84" s="5">
         <v>1.0549311914792101</v>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="G84" s="6">
         <f>GEOMEAN(D84:F84)</f>
-        <v>1.06471976438042</v>
+        <v>1.063520594635508</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>5</v>
@@ -4355,14 +4355,14 @@
         <v>0.97444397118497983</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="1"/>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="5">
-        <v>1.02950854261156</v>
+        <v>1.02120128529842</v>
       </c>
       <c r="E85" s="5">
         <v>1.01239513415271</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="G85" s="6">
         <f t="shared" ref="G85:G87" si="21">GEOMEAN(D85:F85)</f>
-        <v>1.0192706050784905</v>
+        <v>1.0165216492304427</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" t="s">
@@ -4392,14 +4392,14 @@
         <v>0.96040076853339207</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="1"/>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="5">
-        <v>0.98640073458722999</v>
+        <v>0.97951079936762697</v>
       </c>
       <c r="E86" s="5">
         <v>0.96357670778265903</v>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="G86" s="6">
         <f t="shared" si="21"/>
-        <v>0.96882502043463736</v>
+        <v>0.9665640245480196</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" t="s">
@@ -4429,14 +4429,14 @@
         <v>0.91944077513718803</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="1"/>
       <c r="C87" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="5">
-        <v>0.86905742578337797</v>
+        <v>0.87128586905044003</v>
       </c>
       <c r="E87" s="5">
         <v>0.84836382095267604</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="G87" s="6">
         <f t="shared" si="21"/>
-        <v>0.84074093319974064</v>
+        <v>0.84145893115524451</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" t="s">
@@ -4466,13 +4466,13 @@
         <v>0.8031938806796094</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="6">
         <f>GEOMEAN(D84:D87)</f>
-        <v>0.98367405187123569</v>
+        <v>0.97976408470476606</v>
       </c>
       <c r="E88" s="6">
         <f t="shared" ref="E88" si="23">GEOMEAN(E84:E87)</f>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="G88" s="6">
         <f>GEOMEAN(G84:G87)</f>
-        <v>0.96963456495005651</v>
+        <v>0.96834813826462085</v>
       </c>
       <c r="I88" t="s">
         <v>10</v>
@@ -4506,7 +4506,7 @@
         <v>0.91177647088444003</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>21</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="D90" s="1" t="s">
         <v>4</v>
@@ -4538,7 +4538,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="D91">
         <v>2</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="1" t="s">
         <v>5</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="5">
-        <v>1.07649701171881</v>
+        <v>1.0704249800211301</v>
       </c>
       <c r="E92" s="5">
         <v>1.0704535728860001</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="G92" s="6">
         <f>GEOMEAN(D92:F92)</f>
-        <v>1.0820825308719144</v>
+        <v>1.0800441812258603</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>5</v>
@@ -4600,14 +4600,14 @@
         <v>0.98537635487645525</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="1"/>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" s="5">
-        <v>1.0451507931602599</v>
+        <v>1.03482545825172</v>
       </c>
       <c r="E93" s="5">
         <v>1.0279758124121201</v>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="G93" s="6">
         <f t="shared" ref="G93:G95" si="27">GEOMEAN(D93:F93)</f>
-        <v>1.0367624483902724</v>
+        <v>1.0333369884385708</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" t="s">
@@ -4637,14 +4637,14 @@
         <v>0.97213281929758166</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" s="5">
-        <v>1.0017777960616201</v>
+        <v>0.99299438925022898</v>
       </c>
       <c r="E94" s="5">
         <v>0.97887838632259205</v>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G94" s="6">
         <f t="shared" si="27"/>
-        <v>0.98562402708620322</v>
+        <v>0.9827349758416406</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" t="s">
@@ -4674,14 +4674,14 @@
         <v>0.93210347697875195</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="1"/>
       <c r="C95" t="s">
         <v>3</v>
       </c>
       <c r="D95" s="5">
-        <v>0.88198603982708301</v>
+        <v>0.88243913296169096</v>
       </c>
       <c r="E95" s="5">
         <v>0.86105929167496797</v>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="G95" s="6">
         <f t="shared" si="27"/>
-        <v>0.85469538252886612</v>
+        <v>0.85484171527402908</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" t="s">
@@ -4711,13 +4711,13 @@
         <v>0.81617403615375517</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="6">
         <f>GEOMEAN(D92:D95)</f>
-        <v>0.99851874895397907</v>
+        <v>0.99257589368508314</v>
       </c>
       <c r="E96" s="6">
         <f t="shared" ref="E96" si="29">GEOMEAN(E92:E95)</f>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G96" s="6">
         <f>GEOMEAN(G92:G95)</f>
-        <v>0.98597424572440262</v>
+        <v>0.98401428738700347</v>
       </c>
       <c r="I96" t="s">
         <v>10</v>
@@ -4751,7 +4751,7 @@
         <v>0.92393976996938454</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>22</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="D98" s="1" t="s">
         <v>4</v>
@@ -4783,7 +4783,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="D99">
         <v>2</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="1" t="s">
         <v>5</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="5">
-        <v>1.0754990826239501</v>
+        <v>1.06964750903626</v>
       </c>
       <c r="E100" s="5">
         <v>1.0696169461887799</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="G100" s="6">
         <f>GEOMEAN(D100:F100)</f>
-        <v>1.0809177886274874</v>
+        <v>1.0789538706574258</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>5</v>
@@ -4845,14 +4845,14 @@
         <v>0.9844759152184871</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="1"/>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="5">
-        <v>1.0441779037863901</v>
+        <v>1.0339785418535701</v>
       </c>
       <c r="E101" s="5">
         <v>1.0270914397288999</v>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="G101" s="6">
         <f t="shared" ref="G101:G103" si="33">GEOMEAN(D101:F101)</f>
-        <v>1.0355607327788066</v>
+        <v>1.0321779643772491</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" t="s">
@@ -4882,14 +4882,14 @@
         <v>0.97116637539021322</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="1"/>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="5">
-        <v>1.00052209696136</v>
+        <v>0.99208708815006497</v>
       </c>
       <c r="E102" s="5">
         <v>0.97777269061129002</v>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="G102" s="6">
         <f t="shared" si="33"/>
-        <v>0.98429212525407961</v>
+        <v>0.9815182553541556</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" t="s">
@@ -4919,14 +4919,14 @@
         <v>0.93100228572308852</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="1"/>
       <c r="C103" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="5">
-        <v>0.88125719226118404</v>
+        <v>0.88191103833325202</v>
       </c>
       <c r="E103" s="5">
         <v>0.86051290220214205</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G103" s="6">
         <f t="shared" si="33"/>
-        <v>0.8540125705196423</v>
+        <v>0.85422372897495746</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" t="s">
@@ -4956,13 +4956,13 @@
         <v>0.81524359511845046</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="6">
         <f>GEOMEAN(D100:D103)</f>
-        <v>0.997535764943415</v>
+        <v>0.99181733922199744</v>
       </c>
       <c r="E104" s="6">
         <f t="shared" ref="E104" si="35">GEOMEAN(E100:E103)</f>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="G104" s="6">
         <f>GEOMEAN(G100:G103)</f>
-        <v>0.98489317519025743</v>
+        <v>0.98300758369751839</v>
       </c>
       <c r="I104" t="s">
         <v>10</v>
@@ -4996,7 +4996,7 @@
         <v>0.9229628464177404</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>23</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="D106" s="1" t="s">
         <v>4</v>
@@ -5028,7 +5028,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="D107">
         <v>2</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="1" t="s">
         <v>5</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="5">
-        <v>1.06101277015733</v>
+        <v>1.05504445321702</v>
       </c>
       <c r="E108" s="5">
         <v>1.0525279029727399</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="G108" s="6">
         <f>GEOMEAN(D108:F108)</f>
-        <v>1.0629264608650302</v>
+        <v>1.0609296849190524</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>5</v>
@@ -5090,14 +5090,14 @@
         <v>0.97253206339577392</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="1"/>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" s="5">
-        <v>1.02910419882732</v>
+        <v>1.0185519007421699</v>
       </c>
       <c r="E109" s="5">
         <v>1.00933956261736</v>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G109" s="6">
         <f t="shared" ref="G109:G111" si="39">GEOMEAN(D109:F109)</f>
-        <v>1.016929908321407</v>
+        <v>1.0134421384663441</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" t="s">
@@ -5127,14 +5127,14 @@
         <v>0.95835037020864144</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="1"/>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110" s="5">
-        <v>0.98606142934391094</v>
+        <v>0.97705268484111596</v>
       </c>
       <c r="E110" s="5">
         <v>0.96102982909293999</v>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="G110" s="6">
         <f t="shared" si="39"/>
-        <v>0.96698438841469381</v>
+        <v>0.96403055625433365</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" t="s">
@@ -5164,14 +5164,14 @@
         <v>0.91760185890038914</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="1"/>
       <c r="C111" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="5">
-        <v>0.86829628238706402</v>
+        <v>0.868683125940095</v>
       </c>
       <c r="E111" s="5">
         <v>0.84566466799405304</v>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="G111" s="6">
         <f t="shared" si="39"/>
-        <v>0.83830563101732214</v>
+        <v>0.83843010657081174</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" t="s">
@@ -5201,13 +5201,13 @@
         <v>0.80141498880480422</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="6">
         <f>GEOMEAN(D108:D111)</f>
-        <v>0.98330436834249546</v>
+        <v>0.9772559482351717</v>
       </c>
       <c r="E112" s="6">
         <f t="shared" ref="E112:F112" si="41">GEOMEAN(E108:E111)</f>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="G112" s="6">
         <f>GEOMEAN(G108:G111)</f>
-        <v>0.96750678921380706</v>
+        <v>0.96551895871558169</v>
       </c>
       <c r="I112" t="s">
         <v>10</v>
